--- a/Data/out/input_with_predicted_lables.xlsx
+++ b/Data/out/input_with_predicted_lables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1263">
   <si>
     <t>CFA d7NS</t>
   </si>
@@ -2048,6 +2048,1017 @@
   </si>
   <si>
     <t>CFA d7 NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t45</t>
+  </si>
+  <si>
+    <t>t61</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t38</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t37</t>
+  </si>
+  <si>
+    <t>t44</t>
+  </si>
+  <si>
+    <t>t50</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t47</t>
+  </si>
+  <si>
+    <t>t55</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t70</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t52</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
   </si>
   <si>
     <t>Slice</t>
@@ -3193,120 +4204,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>589</v>
+        <v>926</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>651</v>
+        <v>988</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>652</v>
+        <v>989</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>676</v>
+        <v>1013</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>677</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>896</v>
+        <v>1233</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>897</v>
+        <v>1234</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>898</v>
+        <v>1235</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>899</v>
+        <v>1236</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>900</v>
+        <v>1237</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>901</v>
+        <v>1238</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>902</v>
+        <v>1239</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>903</v>
+        <v>1240</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>904</v>
+        <v>1241</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>905</v>
+        <v>1242</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>906</v>
+        <v>1243</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>907</v>
+        <v>1244</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>908</v>
+        <v>1245</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>909</v>
+        <v>1246</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>910</v>
+        <v>1247</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>911</v>
+        <v>1248</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>912</v>
+        <v>1249</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>913</v>
+        <v>1250</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>914</v>
+        <v>1251</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>915</v>
+        <v>1252</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>916</v>
+        <v>1253</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>917</v>
+        <v>1254</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>918</v>
+        <v>1255</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>919</v>
+        <v>1256</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>920</v>
+        <v>1257</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>923</v>
+        <v>1260</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>924</v>
+        <v>1261</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>925</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>590</v>
+        <v>927</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>653</v>
+        <v>990</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>678</v>
+        <v>1015</v>
       </c>
       <c r="F2" s="0">
         <v>532.80600000000004</v>
@@ -3381,7 +4392,7 @@
         <v>2.40625</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE2" s="0">
         <v>3.3333333333333335</v>
@@ -3395,19 +4406,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>590</v>
+        <v>927</v>
       </c>
       <c r="B3" s="0">
         <v>30518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>653</v>
+        <v>990</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>679</v>
+        <v>1016</v>
       </c>
       <c r="F3" s="0">
         <v>462.94099999999997</v>
@@ -3482,7 +4493,7 @@
         <v>5.875</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE3" s="0">
         <v>3.3333333333333335</v>
@@ -3496,19 +4507,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>591</v>
+        <v>928</v>
       </c>
       <c r="B4" s="0">
         <v>30518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>653</v>
+        <v>990</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>680</v>
+        <v>1017</v>
       </c>
       <c r="F4" s="0">
         <v>590.19000000000005</v>
@@ -3583,7 +4594,7 @@
         <v>1.625</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE4" s="0">
         <v>21.666666666666668</v>
@@ -3597,19 +4608,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>592</v>
+        <v>929</v>
       </c>
       <c r="B5" s="0">
         <v>70518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>654</v>
+        <v>991</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>681</v>
+        <v>1018</v>
       </c>
       <c r="F5" s="0">
         <v>527.33900000000006</v>
@@ -3682,7 +4693,7 @@
       </c>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE5" s="0">
         <v>23.333333333333336</v>
@@ -3696,19 +4707,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>593</v>
+        <v>930</v>
       </c>
       <c r="B6" s="0">
         <v>70518</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>654</v>
+        <v>991</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>682</v>
+        <v>1019</v>
       </c>
       <c r="F6" s="0">
         <v>509.87200000000001</v>
@@ -3781,7 +4792,7 @@
       </c>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE6" s="0">
         <v>11.666666666666668</v>
@@ -3795,19 +4806,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>593</v>
+        <v>930</v>
       </c>
       <c r="B7" s="0">
         <v>70518</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>654</v>
+        <v>991</v>
       </c>
       <c r="D7" s="0">
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>683</v>
+        <v>1020</v>
       </c>
       <c r="F7" s="0">
         <v>414.42200000000003</v>
@@ -3882,7 +4893,7 @@
         <v>5.09375</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -3896,19 +4907,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B8" s="0">
         <v>70518</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>654</v>
+        <v>991</v>
       </c>
       <c r="D8" s="0">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>684</v>
+        <v>1021</v>
       </c>
       <c r="F8" s="0">
         <v>466.68799999999999</v>
@@ -3981,7 +4992,7 @@
       </c>
       <c r="AC8" s="0"/>
       <c r="AD8" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -3995,19 +5006,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B9" s="0">
         <v>70518</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>654</v>
+        <v>991</v>
       </c>
       <c r="D9" s="0">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>685</v>
+        <v>1022</v>
       </c>
       <c r="F9" s="0">
         <v>403.43200000000002</v>
@@ -4082,7 +5093,7 @@
         <v>3.96875</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -4096,19 +5107,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B10" s="0">
         <v>80518</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>655</v>
+        <v>992</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>686</v>
+        <v>1023</v>
       </c>
       <c r="F10" s="0">
         <v>484.14499999999998</v>
@@ -4183,7 +5194,7 @@
         <v>12.21875</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE10" s="0">
         <v>21.666666666666668</v>
@@ -4197,19 +5208,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B11" s="0">
         <v>80518</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>655</v>
+        <v>992</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>687</v>
+        <v>1024</v>
       </c>
       <c r="F11" s="0">
         <v>472.774</v>
@@ -4284,7 +5295,7 @@
         <v>2.53125</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE11" s="0">
         <v>10</v>
@@ -4298,19 +5309,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B12" s="0">
         <v>80518</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>655</v>
+        <v>992</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>688</v>
+        <v>1025</v>
       </c>
       <c r="F12" s="0">
         <v>499.76400000000001</v>
@@ -4383,7 +5394,7 @@
       </c>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE12" s="0">
         <v>21.666666666666668</v>
@@ -4397,19 +5408,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B13" s="0">
         <v>50618</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>656</v>
+        <v>993</v>
       </c>
       <c r="D13" s="0">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>689</v>
+        <v>1026</v>
       </c>
       <c r="F13" s="0">
         <v>478.911</v>
@@ -4484,7 +5495,7 @@
         <v>3.25</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE13" s="0">
         <v>0</v>
@@ -4498,19 +5509,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B14" s="0">
         <v>50618</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>656</v>
+        <v>993</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>690</v>
+        <v>1027</v>
       </c>
       <c r="F14" s="0">
         <v>429.96600000000001</v>
@@ -4585,7 +5596,7 @@
         <v>2.78125</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -4599,19 +5610,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B15" s="0">
         <v>50618</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>656</v>
+        <v>993</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>691</v>
+        <v>1028</v>
       </c>
       <c r="F15" s="0">
         <v>513.00300000000004</v>
@@ -4684,7 +5695,7 @@
       </c>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE15" s="0">
         <v>16.666666666666668</v>
@@ -4698,19 +5709,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B16" s="0">
         <v>50618</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>656</v>
+        <v>993</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>692</v>
+        <v>1029</v>
       </c>
       <c r="F16" s="0">
         <v>474.71600000000001</v>
@@ -4785,7 +5796,7 @@
         <v>8.625</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE16" s="0">
         <v>1.6666666666666667</v>
@@ -4799,19 +5810,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B17" s="0">
         <v>50618</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>656</v>
+        <v>993</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>693</v>
+        <v>1030</v>
       </c>
       <c r="F17" s="0">
         <v>354.89999999999998</v>
@@ -4886,7 +5897,7 @@
         <v>4.21875</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE17" s="0">
         <v>0</v>
@@ -4900,19 +5911,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>594</v>
+        <v>931</v>
       </c>
       <c r="B18" s="0">
         <v>50618</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>656</v>
+        <v>993</v>
       </c>
       <c r="D18" s="0">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>694</v>
+        <v>1031</v>
       </c>
       <c r="F18" s="0">
         <v>383.32900000000001</v>
@@ -4987,7 +5998,7 @@
         <v>3.125</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE18" s="0">
         <v>0</v>
@@ -5001,19 +6012,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>595</v>
+        <v>932</v>
       </c>
       <c r="B19" s="0">
         <v>50618</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>656</v>
+        <v>993</v>
       </c>
       <c r="D19" s="0">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>695</v>
+        <v>1032</v>
       </c>
       <c r="F19" s="0">
         <v>476.22300000000001</v>
@@ -5086,7 +6097,7 @@
       </c>
       <c r="AC19" s="0"/>
       <c r="AD19" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE19" s="0">
         <v>40</v>
@@ -5100,19 +6111,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>596</v>
+        <v>933</v>
       </c>
       <c r="B20" s="0">
         <v>50618</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>656</v>
+        <v>993</v>
       </c>
       <c r="D20" s="0">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>696</v>
+        <v>1033</v>
       </c>
       <c r="F20" s="0">
         <v>460.68299999999999</v>
@@ -5185,7 +6196,7 @@
       </c>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE20" s="0">
         <v>23.333333333333336</v>
@@ -5199,19 +6210,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>596</v>
+        <v>933</v>
       </c>
       <c r="B21" s="0">
         <v>80818</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>657</v>
+        <v>994</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>697</v>
+        <v>1034</v>
       </c>
       <c r="F21" s="0">
         <v>486.38900000000001</v>
@@ -5286,7 +6297,7 @@
         <v>2.71875</v>
       </c>
       <c r="AD21" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE21" s="0">
         <v>25</v>
@@ -5300,19 +6311,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>596</v>
+        <v>933</v>
       </c>
       <c r="B22" s="0">
         <v>80818</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>657</v>
+        <v>994</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>698</v>
+        <v>1035</v>
       </c>
       <c r="F22" s="0">
         <v>496.774</v>
@@ -5381,7 +6392,7 @@
       </c>
       <c r="AC22" s="0"/>
       <c r="AD22" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE22" s="0">
         <v>53.333333333333336</v>
@@ -5395,19 +6406,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>596</v>
+        <v>933</v>
       </c>
       <c r="B23" s="0">
         <v>80818</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>657</v>
+        <v>994</v>
       </c>
       <c r="D23" s="0">
         <v>2</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>699</v>
+        <v>1036</v>
       </c>
       <c r="F23" s="0">
         <v>448.62900000000002</v>
@@ -5482,7 +6493,7 @@
         <v>3.53125</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE23" s="0">
         <v>11.666666666666668</v>
@@ -5496,19 +6507,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>596</v>
+        <v>933</v>
       </c>
       <c r="B24" s="0">
         <v>80818</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>657</v>
+        <v>994</v>
       </c>
       <c r="D24" s="0">
         <v>2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>700</v>
+        <v>1037</v>
       </c>
       <c r="F24" s="0">
         <v>482.81599999999997</v>
@@ -5581,7 +6592,7 @@
       </c>
       <c r="AC24" s="0"/>
       <c r="AD24" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE24" s="0">
         <v>50</v>
@@ -5595,19 +6606,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>596</v>
+        <v>933</v>
       </c>
       <c r="B25" s="0">
         <v>80818</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>657</v>
+        <v>994</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>701</v>
+        <v>1038</v>
       </c>
       <c r="F25" s="0">
         <v>361.84899999999999</v>
@@ -5682,7 +6693,7 @@
         <v>2.53125</v>
       </c>
       <c r="AD25" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE25" s="0">
         <v>36.666666666666671</v>
@@ -5696,19 +6707,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>596</v>
+        <v>933</v>
       </c>
       <c r="B26" s="0">
         <v>80818</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>657</v>
+        <v>994</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>702</v>
+        <v>1039</v>
       </c>
       <c r="F26" s="0">
         <v>417.62</v>
@@ -5783,7 +6794,7 @@
         <v>4.6875</v>
       </c>
       <c r="AD26" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE26" s="0">
         <v>0</v>
@@ -5797,19 +6808,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>596</v>
+        <v>933</v>
       </c>
       <c r="B27" s="0">
         <v>220918</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>658</v>
+        <v>995</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>703</v>
+        <v>1040</v>
       </c>
       <c r="F27" s="0">
         <v>480.77300000000002</v>
@@ -5884,7 +6895,7 @@
         <v>4.75</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE27" s="0">
         <v>8.3333333333333339</v>
@@ -5898,19 +6909,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>596</v>
+        <v>933</v>
       </c>
       <c r="B28" s="0">
         <v>11018</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>659</v>
+        <v>996</v>
       </c>
       <c r="D28" s="0">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>704</v>
+        <v>1041</v>
       </c>
       <c r="F28" s="0">
         <v>410.63499999999999</v>
@@ -5985,7 +6996,7 @@
         <v>0.25</v>
       </c>
       <c r="AD28" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE28" s="0">
         <v>30</v>
@@ -5999,19 +7010,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>597</v>
+        <v>934</v>
       </c>
       <c r="B29" s="0">
         <v>21018</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>659</v>
+        <v>996</v>
       </c>
       <c r="D29" s="0">
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>705</v>
+        <v>1042</v>
       </c>
       <c r="F29" s="0">
         <v>363.99400000000003</v>
@@ -6082,7 +7093,7 @@
         <v>0.25</v>
       </c>
       <c r="AD29" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE29" s="0">
         <v>28.333333333333336</v>
@@ -6096,19 +7107,19 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>598</v>
+        <v>935</v>
       </c>
       <c r="B30" s="0">
         <v>311018</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>660</v>
+        <v>997</v>
       </c>
       <c r="D30" s="0">
         <v>2</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>706</v>
+        <v>1043</v>
       </c>
       <c r="F30" s="0">
         <v>575.81500000000005</v>
@@ -6183,7 +7194,7 @@
         <v>6.1875</v>
       </c>
       <c r="AD30" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE30" s="0">
         <v>16.666666666666668</v>
@@ -6197,19 +7208,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>598</v>
+        <v>935</v>
       </c>
       <c r="B31" s="0">
         <v>311018</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>660</v>
+        <v>997</v>
       </c>
       <c r="D31" s="0">
         <v>2</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>707</v>
+        <v>1044</v>
       </c>
       <c r="F31" s="0">
         <v>620.48500000000001</v>
@@ -6284,7 +7295,7 @@
         <v>2.125</v>
       </c>
       <c r="AD31" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE31" s="0">
         <v>13.333333333333334</v>
@@ -6298,19 +7309,19 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>598</v>
+        <v>935</v>
       </c>
       <c r="B32" s="0">
         <v>311018</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>660</v>
+        <v>997</v>
       </c>
       <c r="D32" s="0">
         <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>708</v>
+        <v>1045</v>
       </c>
       <c r="F32" s="0">
         <v>532.50900000000001</v>
@@ -6385,7 +7396,7 @@
         <v>1.40625</v>
       </c>
       <c r="AD32" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE32" s="0">
         <v>25</v>
@@ -6399,19 +7410,19 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>599</v>
+        <v>936</v>
       </c>
       <c r="B33" s="0">
         <v>31218</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D33" s="0">
         <v>2</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>709</v>
+        <v>1046</v>
       </c>
       <c r="F33" s="0">
         <v>360.89699999999999</v>
@@ -6484,7 +7495,7 @@
       </c>
       <c r="AC33" s="0"/>
       <c r="AD33" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE33" s="0">
         <v>0</v>
@@ -6498,19 +7509,19 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>600</v>
+        <v>937</v>
       </c>
       <c r="B34" s="0">
         <v>31218</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D34" s="0">
         <v>2</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>710</v>
+        <v>1047</v>
       </c>
       <c r="F34" s="0">
         <v>429.56400000000002</v>
@@ -6585,7 +7596,7 @@
         <v>8.5</v>
       </c>
       <c r="AD34" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE34" s="0">
         <v>3.3333333333333335</v>
@@ -6599,19 +7610,19 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>600</v>
+        <v>937</v>
       </c>
       <c r="B35" s="0">
         <v>31218</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D35" s="0">
         <v>2</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>711</v>
+        <v>1048</v>
       </c>
       <c r="F35" s="0">
         <v>387.68099999999998</v>
@@ -6686,7 +7697,7 @@
         <v>6.59375</v>
       </c>
       <c r="AD35" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE35" s="0">
         <v>13.333333333333334</v>
@@ -6700,19 +7711,19 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>601</v>
+        <v>938</v>
       </c>
       <c r="B36" s="0">
         <v>171218</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D36" s="0">
         <v>2</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>712</v>
+        <v>1049</v>
       </c>
       <c r="F36" s="0">
         <v>457.68700000000001</v>
@@ -6787,7 +7798,7 @@
         <v>5.0625</v>
       </c>
       <c r="AD36" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE36" s="0">
         <v>26.666666666666668</v>
@@ -6801,19 +7812,19 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>602</v>
+        <v>939</v>
       </c>
       <c r="B37" s="0">
         <v>171218</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D37" s="0">
         <v>2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>713</v>
+        <v>1050</v>
       </c>
       <c r="F37" s="0">
         <v>426.435</v>
@@ -6888,7 +7899,7 @@
         <v>3.15625</v>
       </c>
       <c r="AD37" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE37" s="0">
         <v>0</v>
@@ -6902,19 +7913,19 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>602</v>
+        <v>939</v>
       </c>
       <c r="B38" s="0">
         <v>171218</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D38" s="0">
         <v>2</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>714</v>
+        <v>1051</v>
       </c>
       <c r="F38" s="0">
         <v>389.012</v>
@@ -6989,7 +8000,7 @@
         <v>4.6875</v>
       </c>
       <c r="AD38" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE38" s="0">
         <v>13.333333333333334</v>
@@ -7003,19 +8014,19 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>603</v>
+        <v>940</v>
       </c>
       <c r="B39" s="0">
         <v>171218</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D39" s="0">
         <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>715</v>
+        <v>1052</v>
       </c>
       <c r="F39" s="0">
         <v>428.84899999999999</v>
@@ -7090,7 +8101,7 @@
         <v>3.78125</v>
       </c>
       <c r="AD39" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE39" s="0">
         <v>0</v>
@@ -7104,19 +8115,19 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>603</v>
+        <v>940</v>
       </c>
       <c r="B40" s="0">
         <v>171218</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D40" s="0">
         <v>3</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>716</v>
+        <v>1053</v>
       </c>
       <c r="F40" s="0">
         <v>378.36900000000003</v>
@@ -7191,7 +8202,7 @@
         <v>3.71875</v>
       </c>
       <c r="AD40" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE40" s="0">
         <v>16.666666666666668</v>
@@ -7205,19 +8216,19 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>604</v>
+        <v>941</v>
       </c>
       <c r="B41" s="0">
         <v>171218</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D41" s="0">
         <v>3</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>717</v>
+        <v>1054</v>
       </c>
       <c r="F41" s="0">
         <v>416.42399999999998</v>
@@ -7290,7 +8301,7 @@
       </c>
       <c r="AC41" s="0"/>
       <c r="AD41" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -7304,19 +8315,19 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>605</v>
+        <v>942</v>
       </c>
       <c r="B42" s="0">
         <v>70219</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D42" s="0">
         <v>3</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>718</v>
+        <v>1055</v>
       </c>
       <c r="F42" s="0">
         <v>546.37099999999998</v>
@@ -7391,7 +8402,7 @@
         <v>5.03125</v>
       </c>
       <c r="AD42" s="0" t="s">
-        <v>921</v>
+        <v>1258</v>
       </c>
       <c r="AE42" s="0">
         <v>83.333333333333343</v>
@@ -7405,19 +8416,19 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>606</v>
+        <v>943</v>
       </c>
       <c r="B43" s="0">
         <v>70219</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D43" s="0">
         <v>3</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>719</v>
+        <v>1056</v>
       </c>
       <c r="F43" s="0">
         <v>404.084</v>
@@ -7490,7 +8501,7 @@
       </c>
       <c r="AC43" s="0"/>
       <c r="AD43" s="0" t="s">
-        <v>922</v>
+        <v>1259</v>
       </c>
       <c r="AE43" s="0">
         <v>11.666666666666668</v>
@@ -7504,19 +8515,19 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>606</v>
+        <v>943</v>
       </c>
       <c r="B44" s="0">
         <v>80219</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D44" s="0">
         <v>2</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>720</v>
+        <v>1057</v>
       </c>
       <c r="F44" s="0">
         <v>309.95600000000002</v>
@@ -7603,19 +8614,19 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>606</v>
+        <v>943</v>
       </c>
       <c r="B45" s="0">
         <v>80219</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D45" s="0">
         <v>2</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>721</v>
+        <v>1058</v>
       </c>
       <c r="F45" s="0">
         <v>409.024</v>
@@ -7702,19 +8713,19 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>607</v>
+        <v>944</v>
       </c>
       <c r="B46" s="0">
         <v>80219</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D46" s="0">
         <v>2</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>722</v>
+        <v>1059</v>
       </c>
       <c r="F46" s="0">
         <v>500.19600000000003</v>
@@ -7801,19 +8812,19 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>607</v>
+        <v>944</v>
       </c>
       <c r="B47" s="0">
         <v>80219</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D47" s="0">
         <v>2</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>723</v>
+        <v>1060</v>
       </c>
       <c r="F47" s="0">
         <v>459.149</v>
@@ -7898,19 +8909,19 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>608</v>
+        <v>945</v>
       </c>
       <c r="B48" s="0">
         <v>80219</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D48" s="0">
         <v>2</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>724</v>
+        <v>1061</v>
       </c>
       <c r="F48" s="0">
         <v>428.99900000000002</v>
@@ -7995,19 +9006,19 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>609</v>
+        <v>946</v>
       </c>
       <c r="B49" s="0">
         <v>80219</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D49" s="0">
         <v>2</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>725</v>
+        <v>1062</v>
       </c>
       <c r="F49" s="0">
         <v>411.88499999999999</v>
@@ -8094,19 +9105,19 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>610</v>
+        <v>947</v>
       </c>
       <c r="B50" s="0">
         <v>120219</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D50" s="0">
         <v>2</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>726</v>
+        <v>1063</v>
       </c>
       <c r="F50" s="0">
         <v>362.279</v>
@@ -8193,19 +9204,19 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>610</v>
+        <v>947</v>
       </c>
       <c r="B51" s="0">
         <v>120219</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D51" s="0">
         <v>2</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>727</v>
+        <v>1064</v>
       </c>
       <c r="F51" s="0">
         <v>341.43299999999999</v>
@@ -8292,19 +9303,19 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>610</v>
+        <v>947</v>
       </c>
       <c r="B52" s="0">
         <v>120219</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>661</v>
+        <v>998</v>
       </c>
       <c r="D52" s="0">
         <v>2</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>728</v>
+        <v>1065</v>
       </c>
       <c r="F52" s="0">
         <v>500.5</v>
@@ -8389,19 +9400,19 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>610</v>
+        <v>947</v>
       </c>
       <c r="B53" s="0">
         <v>150519</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>662</v>
+        <v>999</v>
       </c>
       <c r="D53" s="0">
         <v>2</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>728</v>
+        <v>1065</v>
       </c>
       <c r="F53" s="0">
         <v>543.94600000000003</v>
@@ -8488,19 +9499,19 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>610</v>
+        <v>947</v>
       </c>
       <c r="B54" s="0">
         <v>150519</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>662</v>
+        <v>999</v>
       </c>
       <c r="D54" s="0">
         <v>2</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>729</v>
+        <v>1066</v>
       </c>
       <c r="F54" s="0">
         <v>342.39699999999999</v>
@@ -8583,19 +9594,19 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>610</v>
+        <v>947</v>
       </c>
       <c r="B55" s="0">
         <v>150519</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>662</v>
+        <v>999</v>
       </c>
       <c r="D55" s="0">
         <v>2</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>730</v>
+        <v>1067</v>
       </c>
       <c r="F55" s="0">
         <v>499.39800000000002</v>
@@ -8670,7 +9681,7 @@
         <v>7.8125</v>
       </c>
       <c r="AD55" s="0" t="s">
-        <v>922</v>
+        <v>1259</v>
       </c>
       <c r="AE55" s="0">
         <v>28.333333333333336</v>
@@ -8684,19 +9695,19 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>610</v>
+        <v>947</v>
       </c>
       <c r="B56" s="0">
         <v>160519</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>662</v>
+        <v>999</v>
       </c>
       <c r="D56" s="0">
         <v>1</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>731</v>
+        <v>1068</v>
       </c>
       <c r="F56" s="0">
         <v>407.608</v>
@@ -8783,19 +9794,19 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>610</v>
+        <v>947</v>
       </c>
       <c r="B57" s="0">
         <v>160519</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>662</v>
+        <v>999</v>
       </c>
       <c r="D57" s="0">
         <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>732</v>
+        <v>1069</v>
       </c>
       <c r="F57" s="0">
         <v>409.11200000000002</v>
@@ -8882,19 +9893,19 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>611</v>
+        <v>948</v>
       </c>
       <c r="B58" s="0">
         <v>160519</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>662</v>
+        <v>999</v>
       </c>
       <c r="D58" s="0">
         <v>3</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>733</v>
+        <v>1070</v>
       </c>
       <c r="F58" s="0">
         <v>503.45100000000002</v>
@@ -8981,19 +9992,19 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>612</v>
+        <v>949</v>
       </c>
       <c r="B59" s="0">
         <v>160519</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>662</v>
+        <v>999</v>
       </c>
       <c r="D59" s="0">
         <v>3</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>734</v>
+        <v>1071</v>
       </c>
       <c r="F59" s="0">
         <v>480.70400000000001</v>
@@ -9080,19 +10091,19 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>612</v>
+        <v>949</v>
       </c>
       <c r="B60" s="0">
         <v>170519</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>662</v>
+        <v>999</v>
       </c>
       <c r="D60" s="0">
         <v>2</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>735</v>
+        <v>1072</v>
       </c>
       <c r="F60" s="0">
         <v>463.661</v>
@@ -9179,19 +10190,19 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>612</v>
+        <v>949</v>
       </c>
       <c r="B61" s="0">
         <v>170519</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>662</v>
+        <v>999</v>
       </c>
       <c r="D61" s="0">
         <v>2</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>736</v>
+        <v>1073</v>
       </c>
       <c r="F61" s="0">
         <v>452.399</v>
@@ -9278,19 +10289,19 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>612</v>
+        <v>949</v>
       </c>
       <c r="B62" s="0">
         <v>220519</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D62" s="0">
         <v>2</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>736</v>
+        <v>1073</v>
       </c>
       <c r="F62" s="0">
         <v>588.45399999999995</v>
@@ -9377,19 +10388,19 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>613</v>
+        <v>950</v>
       </c>
       <c r="B63" s="0">
         <v>220519</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D63" s="0">
         <v>3</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>737</v>
+        <v>1074</v>
       </c>
       <c r="F63" s="0">
         <v>507.31400000000002</v>
@@ -9476,19 +10487,19 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>614</v>
+        <v>951</v>
       </c>
       <c r="B64" s="0">
         <v>220519</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D64" s="0">
         <v>3</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>738</v>
+        <v>1075</v>
       </c>
       <c r="F64" s="0">
         <v>505.04199999999997</v>
@@ -9575,19 +10586,19 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>614</v>
+        <v>951</v>
       </c>
       <c r="B65" s="0">
         <v>220519</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D65" s="0">
         <v>3</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>739</v>
+        <v>1076</v>
       </c>
       <c r="F65" s="0">
         <v>488.39400000000001</v>
@@ -9672,19 +10683,19 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>614</v>
+        <v>951</v>
       </c>
       <c r="B66" s="0">
         <v>290519</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D66" s="0">
         <v>1</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>740</v>
+        <v>1077</v>
       </c>
       <c r="F66" s="0">
         <v>421.226</v>
@@ -9771,19 +10782,19 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>615</v>
+        <v>952</v>
       </c>
       <c r="B67" s="0">
         <v>290519</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D67" s="0">
         <v>1</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>741</v>
+        <v>1078</v>
       </c>
       <c r="F67" s="0">
         <v>404.71699999999998</v>
@@ -9870,19 +10881,19 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>616</v>
+        <v>953</v>
       </c>
       <c r="B68" s="0">
         <v>290519</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D68" s="0">
         <v>2</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>742</v>
+        <v>1079</v>
       </c>
       <c r="F68" s="0">
         <v>585.452</v>
@@ -9955,7 +10966,7 @@
       </c>
       <c r="AC68" s="0"/>
       <c r="AD68" s="0" t="s">
-        <v>922</v>
+        <v>1259</v>
       </c>
       <c r="AE68" s="0">
         <v>31.666666666666668</v>
@@ -9969,19 +10980,19 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>616</v>
+        <v>953</v>
       </c>
       <c r="B69" s="0">
         <v>300519</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D69" s="0">
         <v>2</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>743</v>
+        <v>1080</v>
       </c>
       <c r="F69" s="0">
         <v>434.90699999999998</v>
@@ -10066,19 +11077,19 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>616</v>
+        <v>953</v>
       </c>
       <c r="B70" s="0">
         <v>300519</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D70" s="0">
         <v>2</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>744</v>
+        <v>1081</v>
       </c>
       <c r="F70" s="0">
         <v>528.89200000000005</v>
@@ -10165,19 +11176,19 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>617</v>
+        <v>954</v>
       </c>
       <c r="B71" s="0">
         <v>300519</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D71" s="0">
         <v>2</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>745</v>
+        <v>1082</v>
       </c>
       <c r="F71" s="0">
         <v>589.42399999999998</v>
@@ -10262,19 +11273,19 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>617</v>
+        <v>954</v>
       </c>
       <c r="B72" s="0">
         <v>300519</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>663</v>
+        <v>1000</v>
       </c>
       <c r="D72" s="0">
         <v>2</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>746</v>
+        <v>1083</v>
       </c>
       <c r="F72" s="0">
         <v>593.97900000000004</v>
@@ -10347,7 +11358,7 @@
       </c>
       <c r="AC72" s="0"/>
       <c r="AD72" s="0" t="s">
-        <v>922</v>
+        <v>1259</v>
       </c>
       <c r="AE72" s="0">
         <v>18.333333333333336</v>
@@ -10361,19 +11372,19 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>618</v>
+        <v>955</v>
       </c>
       <c r="B73" s="0">
         <v>310120</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>664</v>
+        <v>1001</v>
       </c>
       <c r="D73" s="0">
         <v>3</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>747</v>
+        <v>1084</v>
       </c>
       <c r="F73" s="0">
         <v>380.67500000000001</v>
@@ -10448,7 +11459,7 @@
         <v>3.90625</v>
       </c>
       <c r="AD73" s="0" t="s">
-        <v>922</v>
+        <v>1259</v>
       </c>
       <c r="AE73" s="0">
         <v>21.666666666666668</v>
@@ -10462,19 +11473,19 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>618</v>
+        <v>955</v>
       </c>
       <c r="B74" s="0">
         <v>250320</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>664</v>
+        <v>1001</v>
       </c>
       <c r="D74" s="0">
         <v>2</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>748</v>
+        <v>1085</v>
       </c>
       <c r="F74" s="0">
         <v>480.77499999999998</v>
@@ -10561,19 +11572,19 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>619</v>
+        <v>956</v>
       </c>
       <c r="B75" s="0">
         <v>250320</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>664</v>
+        <v>1001</v>
       </c>
       <c r="D75" s="0">
         <v>2</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>749</v>
+        <v>1086</v>
       </c>
       <c r="F75" s="0">
         <v>428.44900000000001</v>
@@ -10660,19 +11671,19 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>620</v>
+        <v>957</v>
       </c>
       <c r="B76" s="0">
         <v>260320</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>664</v>
+        <v>1001</v>
       </c>
       <c r="D76" s="0">
         <v>2</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>750</v>
+        <v>1087</v>
       </c>
       <c r="F76" s="0">
         <v>524.59799999999996</v>
@@ -10757,19 +11768,19 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>620</v>
+        <v>957</v>
       </c>
       <c r="B77" s="0">
         <v>260320</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>664</v>
+        <v>1001</v>
       </c>
       <c r="D77" s="0">
         <v>2</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>751</v>
+        <v>1088</v>
       </c>
       <c r="F77" s="0">
         <v>465.96699999999998</v>
@@ -10856,19 +11867,19 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>621</v>
+        <v>958</v>
       </c>
       <c r="B78" s="0">
         <v>260320</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>664</v>
+        <v>1001</v>
       </c>
       <c r="D78" s="0">
         <v>2</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>752</v>
+        <v>1089</v>
       </c>
       <c r="F78" s="0">
         <v>514.60299999999995</v>
@@ -10949,19 +11960,19 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>622</v>
+        <v>959</v>
       </c>
       <c r="B79" s="0">
         <v>260420</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D79" s="0">
         <v>2</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>753</v>
+        <v>1090</v>
       </c>
       <c r="F79" s="0">
         <v>373.99900000000002</v>
@@ -11048,19 +12059,19 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>622</v>
+        <v>959</v>
       </c>
       <c r="B80" s="0">
         <v>260420</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D80" s="0">
         <v>2</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>754</v>
+        <v>1091</v>
       </c>
       <c r="F80" s="0">
         <v>384.10599999999999</v>
@@ -11147,19 +12158,19 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>622</v>
+        <v>959</v>
       </c>
       <c r="B81" s="0">
         <v>280420</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D81" s="0">
         <v>2</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>755</v>
+        <v>1092</v>
       </c>
       <c r="F81" s="0">
         <v>319.63099999999997</v>
@@ -11246,19 +12257,19 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>622</v>
+        <v>959</v>
       </c>
       <c r="B82" s="0">
         <v>280420</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D82" s="0">
         <v>2</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>756</v>
+        <v>1093</v>
       </c>
       <c r="F82" s="0">
         <v>345.839</v>
@@ -11345,19 +12356,19 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>623</v>
+        <v>960</v>
       </c>
       <c r="B83" s="0">
         <v>280420</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D83" s="0">
         <v>3</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>757</v>
+        <v>1094</v>
       </c>
       <c r="F83" s="0">
         <v>375.012</v>
@@ -11444,19 +12455,19 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>623</v>
+        <v>960</v>
       </c>
       <c r="B84" s="0">
         <v>290420</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D84" s="0">
         <v>2</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>758</v>
+        <v>1095</v>
       </c>
       <c r="F84" s="0">
         <v>381.83600000000001</v>
@@ -11541,19 +12552,19 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>624</v>
+        <v>961</v>
       </c>
       <c r="B85" s="0">
         <v>290420</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D85" s="0">
         <v>2</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>759</v>
+        <v>1096</v>
       </c>
       <c r="F85" s="0">
         <v>386.48500000000001</v>
@@ -11640,19 +12651,19 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>624</v>
+        <v>961</v>
       </c>
       <c r="B86" s="0">
         <v>290420</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D86" s="0">
         <v>3</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>760</v>
+        <v>1097</v>
       </c>
       <c r="F86" s="0">
         <v>497.36599999999999</v>
@@ -11739,19 +12750,19 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>624</v>
+        <v>961</v>
       </c>
       <c r="B87" s="0">
         <v>290420</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D87" s="0">
         <v>3</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>761</v>
+        <v>1098</v>
       </c>
       <c r="F87" s="0">
         <v>530.32899999999995</v>
@@ -11838,19 +12849,19 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>624</v>
+        <v>961</v>
       </c>
       <c r="B88" s="0">
         <v>20520</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D88" s="0">
         <v>2</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>762</v>
+        <v>1099</v>
       </c>
       <c r="F88" s="0">
         <v>509.142</v>
@@ -11937,19 +12948,19 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>625</v>
+        <v>962</v>
       </c>
       <c r="B89" s="0">
         <v>20520</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D89" s="0">
         <v>3</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>763</v>
+        <v>1100</v>
       </c>
       <c r="F89" s="0">
         <v>426.51900000000001</v>
@@ -12036,19 +13047,19 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>626</v>
+        <v>963</v>
       </c>
       <c r="B90" s="0">
         <v>20520</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D90" s="0">
         <v>3</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>764</v>
+        <v>1101</v>
       </c>
       <c r="F90" s="0">
         <v>377.27699999999999</v>
@@ -12135,19 +13146,19 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>626</v>
+        <v>963</v>
       </c>
       <c r="B91" s="0">
         <v>20520</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D91" s="0">
         <v>3</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>765</v>
+        <v>1102</v>
       </c>
       <c r="F91" s="0">
         <v>397.04599999999999</v>
@@ -12234,19 +13245,19 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>626</v>
+        <v>963</v>
       </c>
       <c r="B92" s="0">
         <v>60520</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D92" s="0">
         <v>2</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>766</v>
+        <v>1103</v>
       </c>
       <c r="F92" s="0">
         <v>554.601</v>
@@ -12333,19 +13344,19 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>626</v>
+        <v>963</v>
       </c>
       <c r="B93" s="0">
         <v>60520</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D93" s="0">
         <v>3</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>767</v>
+        <v>1104</v>
       </c>
       <c r="F93" s="0">
         <v>439.82600000000002</v>
@@ -12432,19 +13443,19 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>627</v>
+        <v>964</v>
       </c>
       <c r="B94" s="0">
         <v>60520</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="D94" s="0">
         <v>3</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>768</v>
+        <v>1105</v>
       </c>
       <c r="F94" s="0">
         <v>427.69200000000001</v>
@@ -12529,19 +13540,19 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>627</v>
+        <v>964</v>
       </c>
       <c r="B95" s="0">
         <v>140520</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D95" s="0">
         <v>2</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>769</v>
+        <v>1106</v>
       </c>
       <c r="F95" s="0">
         <v>490.94</v>
@@ -12622,19 +13633,19 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>628</v>
+        <v>965</v>
       </c>
       <c r="B96" s="0">
         <v>150520</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D96" s="0">
         <v>1</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>770</v>
+        <v>1107</v>
       </c>
       <c r="F96" s="0">
         <v>515.92899999999997</v>
@@ -12721,19 +13732,19 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>629</v>
+        <v>966</v>
       </c>
       <c r="B97" s="0">
         <v>150520</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D97" s="0">
         <v>1</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>771</v>
+        <v>1108</v>
       </c>
       <c r="F97" s="0">
         <v>500.041</v>
@@ -12816,19 +13827,19 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>630</v>
+        <v>967</v>
       </c>
       <c r="B98" s="0">
         <v>150520</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D98" s="0">
         <v>2</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>772</v>
+        <v>1109</v>
       </c>
       <c r="F98" s="0">
         <v>462.14400000000001</v>
@@ -12915,19 +13926,19 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>630</v>
+        <v>967</v>
       </c>
       <c r="B99" s="0">
         <v>180520</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D99" s="0">
         <v>1</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>773</v>
+        <v>1110</v>
       </c>
       <c r="F99" s="0">
         <v>424.25799999999998</v>
@@ -13014,19 +14025,19 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>630</v>
+        <v>967</v>
       </c>
       <c r="B100" s="0">
         <v>180520</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D100" s="0">
         <v>1</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>774</v>
+        <v>1111</v>
       </c>
       <c r="F100" s="0">
         <v>383.39499999999998</v>
@@ -13113,19 +14124,19 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>630</v>
+        <v>967</v>
       </c>
       <c r="B101" s="0">
         <v>190520</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D101" s="0">
         <v>1</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>775</v>
+        <v>1112</v>
       </c>
       <c r="F101" s="0">
         <v>450.01600000000002</v>
@@ -13212,19 +14223,19 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>631</v>
+        <v>968</v>
       </c>
       <c r="B102" s="0">
         <v>190520</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D102" s="0">
         <v>1</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>776</v>
+        <v>1113</v>
       </c>
       <c r="F102" s="0">
         <v>475.017</v>
@@ -13311,19 +14322,19 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>632</v>
+        <v>969</v>
       </c>
       <c r="B103" s="0">
         <v>190520</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D103" s="0">
         <v>1</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>777</v>
+        <v>1114</v>
       </c>
       <c r="F103" s="0">
         <v>424.30099999999999</v>
@@ -13410,19 +14421,19 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>633</v>
+        <v>970</v>
       </c>
       <c r="B104" s="0">
         <v>190520</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D104" s="0">
         <v>1</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>778</v>
+        <v>1115</v>
       </c>
       <c r="F104" s="0">
         <v>570.43799999999999</v>
@@ -13507,19 +14518,19 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>634</v>
+        <v>971</v>
       </c>
       <c r="B105" s="0">
         <v>200520</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D105" s="0">
         <v>2</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>779</v>
+        <v>1116</v>
       </c>
       <c r="F105" s="0">
         <v>520.65999999999997</v>
@@ -13606,19 +14617,19 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>634</v>
+        <v>971</v>
       </c>
       <c r="B106" s="0">
         <v>200520</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D106" s="0">
         <v>2</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>780</v>
+        <v>1117</v>
       </c>
       <c r="F106" s="0">
         <v>512.58900000000006</v>
@@ -13705,19 +14716,19 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>635</v>
+        <v>972</v>
       </c>
       <c r="B107" s="0">
         <v>210520</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D107" s="0">
         <v>1</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>781</v>
+        <v>1118</v>
       </c>
       <c r="F107" s="0">
         <v>482.98500000000001</v>
@@ -13804,19 +14815,19 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>636</v>
+        <v>973</v>
       </c>
       <c r="B108" s="0">
         <v>210520</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D108" s="0">
         <v>1</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>782</v>
+        <v>1119</v>
       </c>
       <c r="F108" s="0">
         <v>510.274</v>
@@ -13903,19 +14914,19 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>636</v>
+        <v>973</v>
       </c>
       <c r="B109" s="0">
         <v>210520</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D109" s="0">
         <v>2</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>783</v>
+        <v>1120</v>
       </c>
       <c r="F109" s="0">
         <v>570.12</v>
@@ -14002,19 +15013,19 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>637</v>
+        <v>974</v>
       </c>
       <c r="B110" s="0">
         <v>240520</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D110" s="0">
         <v>1</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>784</v>
+        <v>1121</v>
       </c>
       <c r="F110" s="0">
         <v>352.471</v>
@@ -14101,19 +15112,19 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>637</v>
+        <v>974</v>
       </c>
       <c r="B111" s="0">
         <v>240520</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D111" s="0">
         <v>1</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>785</v>
+        <v>1122</v>
       </c>
       <c r="F111" s="0">
         <v>378.04399999999998</v>
@@ -14200,19 +15211,19 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>638</v>
+        <v>975</v>
       </c>
       <c r="B112" s="0">
         <v>240520</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D112" s="0">
         <v>2</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>786</v>
+        <v>1123</v>
       </c>
       <c r="F112" s="0">
         <v>432.50099999999998</v>
@@ -14299,19 +15310,19 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>638</v>
+        <v>975</v>
       </c>
       <c r="B113" s="0">
         <v>240520</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>666</v>
+        <v>1003</v>
       </c>
       <c r="D113" s="0">
         <v>2</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>787</v>
+        <v>1124</v>
       </c>
       <c r="F113" s="0">
         <v>420.47899999999998</v>
@@ -14398,19 +15409,19 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>638</v>
+        <v>975</v>
       </c>
       <c r="B114" s="0">
         <v>270520</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>667</v>
+        <v>1004</v>
       </c>
       <c r="D114" s="0">
         <v>2</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>788</v>
+        <v>1125</v>
       </c>
       <c r="F114" s="0">
         <v>391.40600000000001</v>
@@ -14497,19 +15508,19 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>639</v>
+        <v>976</v>
       </c>
       <c r="B115" s="0">
         <v>270520</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>667</v>
+        <v>1004</v>
       </c>
       <c r="D115" s="0">
         <v>2</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>789</v>
+        <v>1126</v>
       </c>
       <c r="F115" s="0">
         <v>393.995</v>
@@ -14596,19 +15607,19 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>640</v>
+        <v>977</v>
       </c>
       <c r="B116" s="0">
         <v>270520</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>667</v>
+        <v>1004</v>
       </c>
       <c r="D116" s="0">
         <v>2</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>790</v>
+        <v>1127</v>
       </c>
       <c r="F116" s="0">
         <v>400.02699999999999</v>
@@ -14695,19 +15706,19 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>640</v>
+        <v>977</v>
       </c>
       <c r="B117" s="0">
         <v>41220</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>668</v>
+        <v>1005</v>
       </c>
       <c r="D117" s="0">
         <v>3</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>791</v>
+        <v>1128</v>
       </c>
       <c r="F117" s="0">
         <v>468.20600000000002</v>
@@ -14794,19 +15805,19 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>641</v>
+        <v>978</v>
       </c>
       <c r="B118" s="0">
         <v>41220</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D118" s="0">
         <v>2</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>792</v>
+        <v>1129</v>
       </c>
       <c r="F118" s="0">
         <v>527.303</v>
@@ -14893,19 +15904,19 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B119" s="0">
         <v>41220</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D119" s="0">
         <v>2</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>793</v>
+        <v>1130</v>
       </c>
       <c r="F119" s="0">
         <v>443.95999999999998</v>
@@ -14992,19 +16003,19 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B120" s="0">
         <v>81220</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D120" s="0">
         <v>2</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>794</v>
+        <v>1131</v>
       </c>
       <c r="F120" s="0">
         <v>337.86000000000001</v>
@@ -15091,19 +16102,19 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B121" s="0">
         <v>81220</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D121" s="0">
         <v>2</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>795</v>
+        <v>1132</v>
       </c>
       <c r="F121" s="0">
         <v>395.22399999999999</v>
@@ -15190,19 +16201,19 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B122" s="0">
         <v>91220</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D122" s="0">
         <v>2</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>796</v>
+        <v>1133</v>
       </c>
       <c r="F122" s="0">
         <v>402.30399999999997</v>
@@ -15289,19 +16300,19 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B123" s="0">
         <v>91220</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D123" s="0">
         <v>2</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>797</v>
+        <v>1134</v>
       </c>
       <c r="F123" s="0">
         <v>420.47300000000001</v>
@@ -15388,19 +16399,19 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B124" s="0">
         <v>130121</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D124" s="0">
         <v>2</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>798</v>
+        <v>1135</v>
       </c>
       <c r="F124" s="0">
         <v>433.36700000000002</v>
@@ -15487,19 +16498,19 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B125" s="0">
         <v>130121</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D125" s="0">
         <v>3</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>799</v>
+        <v>1136</v>
       </c>
       <c r="F125" s="0">
         <v>494.46800000000002</v>
@@ -15586,19 +16597,19 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B126" s="0">
         <v>130121</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D126" s="0">
         <v>5</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>800</v>
+        <v>1137</v>
       </c>
       <c r="F126" s="0">
         <v>457.59800000000001</v>
@@ -15685,19 +16696,19 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B127" s="0">
         <v>180121</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D127" s="0">
         <v>2</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>801</v>
+        <v>1138</v>
       </c>
       <c r="F127" s="0">
         <v>361.38999999999999</v>
@@ -15784,19 +16795,19 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B128" s="0">
         <v>180121</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D128" s="0">
         <v>2</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>802</v>
+        <v>1139</v>
       </c>
       <c r="F128" s="0">
         <v>416.15499999999997</v>
@@ -15883,19 +16894,19 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="B129" s="0">
         <v>180121</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D129" s="0">
         <v>3</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>803</v>
+        <v>1140</v>
       </c>
       <c r="F129" s="0">
         <v>404.61900000000003</v>
@@ -15982,19 +16993,19 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>643</v>
+        <v>980</v>
       </c>
       <c r="B130" s="0">
         <v>180121</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D130" s="0">
         <v>3</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>804</v>
+        <v>1141</v>
       </c>
       <c r="F130" s="0">
         <v>402.56</v>
@@ -16081,19 +17092,19 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>643</v>
+        <v>980</v>
       </c>
       <c r="B131" s="0">
         <v>190121</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D131" s="0">
         <v>2</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>805</v>
+        <v>1142</v>
       </c>
       <c r="F131" s="0">
         <v>531.99300000000005</v>
@@ -16180,19 +17191,19 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>644</v>
+        <v>981</v>
       </c>
       <c r="B132" s="0">
         <v>190121</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D132" s="0">
         <v>3</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>806</v>
+        <v>1143</v>
       </c>
       <c r="F132" s="0">
         <v>517.55600000000004</v>
@@ -16279,19 +17290,19 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>645</v>
+        <v>982</v>
       </c>
       <c r="B133" s="0">
         <v>190121</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D133" s="0">
         <v>3</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>807</v>
+        <v>1144</v>
       </c>
       <c r="F133" s="0">
         <v>406.07999999999998</v>
@@ -16378,19 +17389,19 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>645</v>
+        <v>982</v>
       </c>
       <c r="B134" s="0">
         <v>190121</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D134" s="0">
         <v>3</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>808</v>
+        <v>1145</v>
       </c>
       <c r="F134" s="0">
         <v>363.67099999999999</v>
@@ -16477,19 +17488,19 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>646</v>
+        <v>983</v>
       </c>
       <c r="B135" s="0">
         <v>250121</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D135" s="0">
         <v>2</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>809</v>
+        <v>1146</v>
       </c>
       <c r="F135" s="0">
         <v>418.19600000000003</v>
@@ -16576,19 +17587,19 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>646</v>
+        <v>983</v>
       </c>
       <c r="B136" s="0">
         <v>250121</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D136" s="0">
         <v>2</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>810</v>
+        <v>1147</v>
       </c>
       <c r="F136" s="0">
         <v>421.99000000000001</v>
@@ -16675,19 +17686,19 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>646</v>
+        <v>983</v>
       </c>
       <c r="B137" s="0">
         <v>250121</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D137" s="0">
         <v>2</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>811</v>
+        <v>1148</v>
       </c>
       <c r="F137" s="0">
         <v>450.01600000000002</v>
@@ -16774,19 +17785,19 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>647</v>
+        <v>984</v>
       </c>
       <c r="B138" s="0">
         <v>250121</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D138" s="0">
         <v>2</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>812</v>
+        <v>1149</v>
       </c>
       <c r="F138" s="0">
         <v>455.69900000000001</v>
@@ -16873,19 +17884,19 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>648</v>
+        <v>985</v>
       </c>
       <c r="B139" s="0">
         <v>250121</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D139" s="0">
         <v>3</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>813</v>
+        <v>1150</v>
       </c>
       <c r="F139" s="0">
         <v>479.04000000000002</v>
@@ -16972,19 +17983,19 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>648</v>
+        <v>985</v>
       </c>
       <c r="B140" s="0">
         <v>250121</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="D140" s="0">
         <v>3</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>814</v>
+        <v>1151</v>
       </c>
       <c r="F140" s="0">
         <v>457.59699999999998</v>
@@ -17071,19 +18082,19 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>648</v>
+        <v>985</v>
       </c>
       <c r="B141" s="0">
         <v>30221</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>670</v>
+        <v>1007</v>
       </c>
       <c r="D141" s="0">
         <v>2</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>815</v>
+        <v>1152</v>
       </c>
       <c r="F141" s="0">
         <v>445.892</v>
@@ -17170,19 +18181,19 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>649</v>
+        <v>986</v>
       </c>
       <c r="B142" s="0">
         <v>30221</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>670</v>
+        <v>1007</v>
       </c>
       <c r="D142" s="0">
         <v>2</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>816</v>
+        <v>1153</v>
       </c>
       <c r="F142" s="0">
         <v>378.37099999999998</v>
@@ -17269,19 +18280,19 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>650</v>
+        <v>987</v>
       </c>
       <c r="B143" s="0">
         <v>40221</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>670</v>
+        <v>1007</v>
       </c>
       <c r="D143" s="0">
         <v>1</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>816</v>
+        <v>1153</v>
       </c>
       <c r="F143" s="0">
         <v>476.60199999999998</v>
@@ -17368,19 +18379,19 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>650</v>
+        <v>987</v>
       </c>
       <c r="B144" s="0">
         <v>40221</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>670</v>
+        <v>1007</v>
       </c>
       <c r="D144" s="0">
         <v>1</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>817</v>
+        <v>1154</v>
       </c>
       <c r="F144" s="0">
         <v>531.20100000000002</v>
@@ -17467,19 +18478,19 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>650</v>
+        <v>987</v>
       </c>
       <c r="B145" s="0">
         <v>210618</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D145" s="0">
         <v>1</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>818</v>
+        <v>1155</v>
       </c>
       <c r="F145" s="0"/>
       <c r="G145" s="0"/>
@@ -17540,13 +18551,13 @@
         <v>30818</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D146" s="0">
         <v>1</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>819</v>
+        <v>1156</v>
       </c>
       <c r="F146" s="0"/>
       <c r="G146" s="0"/>
@@ -17607,13 +18618,13 @@
         <v>30818</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D147" s="0">
         <v>3</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>820</v>
+        <v>1157</v>
       </c>
       <c r="F147" s="0"/>
       <c r="G147" s="0"/>
@@ -17674,13 +18685,13 @@
         <v>30818</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D148" s="0">
         <v>3</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>821</v>
+        <v>1158</v>
       </c>
       <c r="F148" s="0"/>
       <c r="G148" s="0"/>
@@ -17741,13 +18752,13 @@
         <v>30818</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D149" s="0">
         <v>3</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>822</v>
+        <v>1159</v>
       </c>
       <c r="F149" s="0"/>
       <c r="G149" s="0"/>
@@ -17808,13 +18819,13 @@
         <v>30818</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D150" s="0">
         <v>3</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>823</v>
+        <v>1160</v>
       </c>
       <c r="F150" s="0"/>
       <c r="G150" s="0"/>
@@ -17875,13 +18886,13 @@
         <v>30818</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D151" s="0">
         <v>1</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>824</v>
+        <v>1161</v>
       </c>
       <c r="F151" s="0"/>
       <c r="G151" s="0"/>
@@ -17940,13 +18951,13 @@
         <v>30818</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D152" s="0">
         <v>1</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>825</v>
+        <v>1162</v>
       </c>
       <c r="F152" s="0"/>
       <c r="G152" s="0"/>
@@ -18007,13 +19018,13 @@
         <v>30818</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D153" s="0">
         <v>2</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>826</v>
+        <v>1163</v>
       </c>
       <c r="F153" s="0"/>
       <c r="G153" s="0"/>
@@ -18074,13 +19085,13 @@
         <v>30818</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D154" s="0">
         <v>2</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>827</v>
+        <v>1164</v>
       </c>
       <c r="F154" s="0"/>
       <c r="G154" s="0"/>
@@ -18139,13 +19150,13 @@
         <v>60818</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D155" s="0">
         <v>1</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>828</v>
+        <v>1165</v>
       </c>
       <c r="F155" s="0"/>
       <c r="G155" s="0"/>
@@ -18206,13 +19217,13 @@
         <v>60818</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D156" s="0">
         <v>3</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>829</v>
+        <v>1166</v>
       </c>
       <c r="F156" s="0"/>
       <c r="G156" s="0"/>
@@ -18273,13 +19284,13 @@
         <v>60818</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D157" s="0">
         <v>1</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>830</v>
+        <v>1167</v>
       </c>
       <c r="F157" s="0"/>
       <c r="G157" s="0"/>
@@ -18340,13 +19351,13 @@
         <v>60818</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D158" s="0">
         <v>2</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>831</v>
+        <v>1168</v>
       </c>
       <c r="F158" s="0"/>
       <c r="G158" s="0"/>
@@ -18407,13 +19418,13 @@
         <v>60818</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D159" s="0">
         <v>3</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>832</v>
+        <v>1169</v>
       </c>
       <c r="F159" s="0"/>
       <c r="G159" s="0"/>
@@ -18474,13 +19485,13 @@
         <v>60818</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D160" s="0">
         <v>3</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>833</v>
+        <v>1170</v>
       </c>
       <c r="F160" s="0"/>
       <c r="G160" s="0"/>
@@ -18541,13 +19552,13 @@
         <v>60818</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D161" s="0">
         <v>3</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>834</v>
+        <v>1171</v>
       </c>
       <c r="F161" s="0"/>
       <c r="G161" s="0"/>
@@ -18608,13 +19619,13 @@
         <v>70818</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D162" s="0">
         <v>1</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>835</v>
+        <v>1172</v>
       </c>
       <c r="F162" s="0"/>
       <c r="G162" s="0"/>
@@ -18675,13 +19686,13 @@
         <v>70818</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D163" s="0">
         <v>2</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>836</v>
+        <v>1173</v>
       </c>
       <c r="F163" s="0"/>
       <c r="G163" s="0"/>
@@ -18742,13 +19753,13 @@
         <v>70818</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D164" s="0">
         <v>1</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>837</v>
+        <v>1174</v>
       </c>
       <c r="F164" s="0"/>
       <c r="G164" s="0"/>
@@ -18809,13 +19820,13 @@
         <v>70818</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D165" s="0">
         <v>2</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>838</v>
+        <v>1175</v>
       </c>
       <c r="F165" s="0"/>
       <c r="G165" s="0"/>
@@ -18876,13 +19887,13 @@
         <v>70818</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D166" s="0">
         <v>1</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>839</v>
+        <v>1176</v>
       </c>
       <c r="F166" s="0"/>
       <c r="G166" s="0"/>
@@ -18943,13 +19954,13 @@
         <v>70818</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D167" s="0">
         <v>1</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>840</v>
+        <v>1177</v>
       </c>
       <c r="F167" s="0"/>
       <c r="G167" s="0"/>
@@ -19010,13 +20021,13 @@
         <v>70818</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D168" s="0">
         <v>2</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>841</v>
+        <v>1178</v>
       </c>
       <c r="F168" s="0"/>
       <c r="G168" s="0"/>
@@ -19075,13 +20086,13 @@
         <v>70818</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D169" s="0">
         <v>2</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>842</v>
+        <v>1179</v>
       </c>
       <c r="F169" s="0"/>
       <c r="G169" s="0"/>
@@ -19142,13 +20153,13 @@
         <v>70818</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D170" s="0">
         <v>2</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>843</v>
+        <v>1180</v>
       </c>
       <c r="F170" s="0"/>
       <c r="G170" s="0"/>
@@ -19209,13 +20220,13 @@
         <v>140818</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D171" s="0">
         <v>1</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>844</v>
+        <v>1181</v>
       </c>
       <c r="F171" s="0"/>
       <c r="G171" s="0"/>
@@ -19274,13 +20285,13 @@
         <v>140818</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D172" s="0">
         <v>1</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>845</v>
+        <v>1182</v>
       </c>
       <c r="F172" s="0"/>
       <c r="G172" s="0"/>
@@ -19341,13 +20352,13 @@
         <v>140818</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D173" s="0">
         <v>2</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>846</v>
+        <v>1183</v>
       </c>
       <c r="F173" s="0"/>
       <c r="G173" s="0"/>
@@ -19408,13 +20419,13 @@
         <v>140818</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D174" s="0">
         <v>2</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>847</v>
+        <v>1184</v>
       </c>
       <c r="F174" s="0"/>
       <c r="G174" s="0"/>
@@ -19475,13 +20486,13 @@
         <v>140818</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D175" s="0">
         <v>2</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>848</v>
+        <v>1185</v>
       </c>
       <c r="F175" s="0"/>
       <c r="G175" s="0"/>
@@ -19540,13 +20551,13 @@
         <v>140818</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>671</v>
+        <v>1008</v>
       </c>
       <c r="D176" s="0">
         <v>3</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>849</v>
+        <v>1186</v>
       </c>
       <c r="F176" s="0"/>
       <c r="G176" s="0"/>
@@ -19605,13 +20616,13 @@
         <v>300518</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D177" s="0">
         <v>1</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>850</v>
+        <v>1187</v>
       </c>
       <c r="F177" s="0"/>
       <c r="G177" s="0"/>
@@ -19672,13 +20683,13 @@
         <v>300518</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D178" s="0">
         <v>1</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>851</v>
+        <v>1188</v>
       </c>
       <c r="F178" s="0"/>
       <c r="G178" s="0"/>
@@ -19739,13 +20750,13 @@
         <v>300518</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D179" s="0">
         <v>1</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>852</v>
+        <v>1189</v>
       </c>
       <c r="F179" s="0"/>
       <c r="G179" s="0"/>
@@ -19806,13 +20817,13 @@
         <v>300518</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D180" s="0">
         <v>2</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>853</v>
+        <v>1190</v>
       </c>
       <c r="F180" s="0"/>
       <c r="G180" s="0"/>
@@ -19873,13 +20884,13 @@
         <v>300518</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D181" s="0">
         <v>2</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>854</v>
+        <v>1191</v>
       </c>
       <c r="F181" s="0"/>
       <c r="G181" s="0"/>
@@ -19940,13 +20951,13 @@
         <v>300518</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D182" s="0">
         <v>3</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>855</v>
+        <v>1192</v>
       </c>
       <c r="F182" s="0"/>
       <c r="G182" s="0"/>
@@ -20007,13 +21018,13 @@
         <v>300518</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D183" s="0">
         <v>3</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>856</v>
+        <v>1193</v>
       </c>
       <c r="F183" s="0"/>
       <c r="G183" s="0"/>
@@ -20074,13 +21085,13 @@
         <v>300518</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D184" s="0">
         <v>3</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>857</v>
+        <v>1194</v>
       </c>
       <c r="F184" s="0"/>
       <c r="G184" s="0"/>
@@ -20139,13 +21150,13 @@
         <v>70618</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D185" s="0">
         <v>1</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>858</v>
+        <v>1195</v>
       </c>
       <c r="F185" s="0"/>
       <c r="G185" s="0"/>
@@ -20206,13 +21217,13 @@
         <v>70618</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D186" s="0">
         <v>1</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>859</v>
+        <v>1196</v>
       </c>
       <c r="F186" s="0"/>
       <c r="G186" s="0"/>
@@ -20273,13 +21284,13 @@
         <v>70618</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D187" s="0">
         <v>1</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>860</v>
+        <v>1197</v>
       </c>
       <c r="F187" s="0"/>
       <c r="G187" s="0"/>
@@ -20340,13 +21351,13 @@
         <v>70618</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D188" s="0">
         <v>1</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>861</v>
+        <v>1198</v>
       </c>
       <c r="F188" s="0"/>
       <c r="G188" s="0"/>
@@ -20407,13 +21418,13 @@
         <v>70618</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D189" s="0">
         <v>2</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>862</v>
+        <v>1199</v>
       </c>
       <c r="F189" s="0"/>
       <c r="G189" s="0"/>
@@ -20474,13 +21485,13 @@
         <v>70618</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D190" s="0">
         <v>2</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>863</v>
+        <v>1200</v>
       </c>
       <c r="F190" s="0"/>
       <c r="G190" s="0"/>
@@ -20541,13 +21552,13 @@
         <v>70618</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D191" s="0">
         <v>2</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>864</v>
+        <v>1201</v>
       </c>
       <c r="F191" s="0"/>
       <c r="G191" s="0"/>
@@ -20608,13 +21619,13 @@
         <v>70618</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D192" s="0">
         <v>3</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>865</v>
+        <v>1202</v>
       </c>
       <c r="F192" s="0"/>
       <c r="G192" s="0"/>
@@ -20675,13 +21686,13 @@
         <v>70618</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D193" s="0">
         <v>3</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>866</v>
+        <v>1203</v>
       </c>
       <c r="F193" s="0"/>
       <c r="G193" s="0"/>
@@ -20742,13 +21753,13 @@
         <v>70618</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D194" s="0">
         <v>3</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>867</v>
+        <v>1204</v>
       </c>
       <c r="F194" s="0"/>
       <c r="G194" s="0"/>
@@ -20809,13 +21820,13 @@
         <v>70618</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D195" s="0">
         <v>3</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>868</v>
+        <v>1205</v>
       </c>
       <c r="F195" s="0"/>
       <c r="G195" s="0"/>
@@ -20876,13 +21887,13 @@
         <v>80618</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D196" s="0">
         <v>1</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>869</v>
+        <v>1206</v>
       </c>
       <c r="F196" s="0"/>
       <c r="G196" s="0"/>
@@ -20943,13 +21954,13 @@
         <v>80618</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D197" s="0">
         <v>1</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>870</v>
+        <v>1207</v>
       </c>
       <c r="F197" s="0"/>
       <c r="G197" s="0"/>
@@ -21010,13 +22021,13 @@
         <v>80618</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D198" s="0">
         <v>2</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>871</v>
+        <v>1208</v>
       </c>
       <c r="F198" s="0"/>
       <c r="G198" s="0"/>
@@ -21077,13 +22088,13 @@
         <v>80618</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D199" s="0">
         <v>3</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>872</v>
+        <v>1209</v>
       </c>
       <c r="F199" s="0"/>
       <c r="G199" s="0"/>
@@ -21144,13 +22155,13 @@
         <v>80618</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D200" s="0">
         <v>3</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>873</v>
+        <v>1210</v>
       </c>
       <c r="F200" s="0"/>
       <c r="G200" s="0"/>
@@ -21211,13 +22222,13 @@
         <v>80618</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>672</v>
+        <v>1009</v>
       </c>
       <c r="D201" s="0">
         <v>3</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>874</v>
+        <v>1211</v>
       </c>
       <c r="F201" s="0"/>
       <c r="G201" s="0"/>
@@ -21278,13 +22289,13 @@
         <v>251018</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D202" s="0">
         <v>2</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>875</v>
+        <v>1212</v>
       </c>
       <c r="F202" s="0"/>
       <c r="G202" s="0"/>
@@ -21345,13 +22356,13 @@
         <v>251018</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D203" s="0">
         <v>2</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>876</v>
+        <v>1213</v>
       </c>
       <c r="F203" s="0"/>
       <c r="G203" s="0"/>
@@ -21412,13 +22423,13 @@
         <v>251018</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D204" s="0">
         <v>2</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>877</v>
+        <v>1214</v>
       </c>
       <c r="F204" s="0"/>
       <c r="G204" s="0"/>
@@ -21479,13 +22490,13 @@
         <v>261018</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D205" s="0">
         <v>2</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>878</v>
+        <v>1215</v>
       </c>
       <c r="F205" s="0"/>
       <c r="G205" s="0"/>
@@ -21546,13 +22557,13 @@
         <v>261018</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D206" s="0">
         <v>2</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>879</v>
+        <v>1216</v>
       </c>
       <c r="F206" s="0"/>
       <c r="G206" s="0"/>
@@ -21613,13 +22624,13 @@
         <v>261018</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D207" s="0">
         <v>2</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>880</v>
+        <v>1217</v>
       </c>
       <c r="F207" s="0"/>
       <c r="G207" s="0"/>
@@ -21680,13 +22691,13 @@
         <v>261018</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D208" s="0">
         <v>2</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>881</v>
+        <v>1218</v>
       </c>
       <c r="F208" s="0"/>
       <c r="G208" s="0"/>
@@ -21745,13 +22756,13 @@
         <v>220519</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D209" s="0">
         <v>1</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>882</v>
+        <v>1219</v>
       </c>
       <c r="F209" s="0"/>
       <c r="G209" s="0"/>
@@ -21812,13 +22823,13 @@
         <v>220519</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D210" s="0">
         <v>1</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>883</v>
+        <v>1220</v>
       </c>
       <c r="F210" s="0"/>
       <c r="G210" s="0"/>
@@ -21877,13 +22888,13 @@
         <v>220519</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D211" s="0">
         <v>2</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>884</v>
+        <v>1221</v>
       </c>
       <c r="F211" s="0"/>
       <c r="G211" s="0"/>
@@ -21944,13 +22955,13 @@
         <v>220519</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>673</v>
+        <v>1010</v>
       </c>
       <c r="D212" s="0">
         <v>2</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>885</v>
+        <v>1222</v>
       </c>
       <c r="F212" s="0"/>
       <c r="G212" s="0"/>
@@ -22011,13 +23022,13 @@
         <v>40918</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>674</v>
+        <v>1011</v>
       </c>
       <c r="D213" s="0">
         <v>2</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>886</v>
+        <v>1223</v>
       </c>
       <c r="F213" s="0"/>
       <c r="G213" s="0"/>
@@ -22076,13 +23087,13 @@
         <v>40918</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>674</v>
+        <v>1011</v>
       </c>
       <c r="D214" s="0">
         <v>2</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>887</v>
+        <v>1224</v>
       </c>
       <c r="F214" s="0"/>
       <c r="G214" s="0"/>
@@ -22141,13 +23152,13 @@
         <v>11018</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>675</v>
+        <v>1012</v>
       </c>
       <c r="D215" s="0">
         <v>2</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>888</v>
+        <v>1225</v>
       </c>
       <c r="F215" s="0"/>
       <c r="G215" s="0"/>
@@ -22208,13 +23219,13 @@
         <v>11018</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>675</v>
+        <v>1012</v>
       </c>
       <c r="D216" s="0">
         <v>2</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>889</v>
+        <v>1226</v>
       </c>
       <c r="F216" s="0"/>
       <c r="G216" s="0"/>
@@ -22275,13 +23286,13 @@
         <v>21018</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>675</v>
+        <v>1012</v>
       </c>
       <c r="D217" s="0">
         <v>2</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>890</v>
+        <v>1227</v>
       </c>
       <c r="F217" s="0"/>
       <c r="G217" s="0"/>
@@ -22340,13 +23351,13 @@
         <v>21018</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>675</v>
+        <v>1012</v>
       </c>
       <c r="D218" s="0">
         <v>2</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>891</v>
+        <v>1228</v>
       </c>
       <c r="F218" s="0"/>
       <c r="G218" s="0"/>
@@ -22407,11 +23418,11 @@
         <v>270319</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>675</v>
+        <v>1012</v>
       </c>
       <c r="D219" s="0"/>
       <c r="E219" s="0" t="s">
-        <v>892</v>
+        <v>1229</v>
       </c>
       <c r="F219" s="0"/>
       <c r="G219" s="0"/>
@@ -22472,11 +23483,11 @@
         <v>270319</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>675</v>
+        <v>1012</v>
       </c>
       <c r="D220" s="0"/>
       <c r="E220" s="0" t="s">
-        <v>893</v>
+        <v>1230</v>
       </c>
       <c r="F220" s="0"/>
       <c r="G220" s="0"/>
@@ -22537,11 +23548,11 @@
         <v>270319</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>675</v>
+        <v>1012</v>
       </c>
       <c r="D221" s="0"/>
       <c r="E221" s="0" t="s">
-        <v>894</v>
+        <v>1231</v>
       </c>
       <c r="F221" s="0"/>
       <c r="G221" s="0"/>
@@ -22600,11 +23611,11 @@
         <v>270320</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>675</v>
+        <v>1012</v>
       </c>
       <c r="D222" s="0"/>
       <c r="E222" s="0" t="s">
-        <v>895</v>
+        <v>1232</v>
       </c>
       <c r="F222" s="0"/>
       <c r="G222" s="0"/>

--- a/Data/out/input_with_predicted_lables.xlsx
+++ b/Data/out/input_with_predicted_lables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="1600">
   <si>
     <t>CFA d7NS</t>
   </si>
@@ -2048,6 +2048,1017 @@
   </si>
   <si>
     <t>CFA d7 NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t45</t>
+  </si>
+  <si>
+    <t>t61</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t38</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t37</t>
+  </si>
+  <si>
+    <t>t44</t>
+  </si>
+  <si>
+    <t>t50</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t47</t>
+  </si>
+  <si>
+    <t>t55</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t70</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t52</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
   </si>
   <si>
     <t>Slice</t>
@@ -3829,7 +4840,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3838,13 +4849,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4167,157 +5180,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.5703125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.6015625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="12.37890625" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="8.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="8.42578125" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="32" max="32" width="8.37890625" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>926</v>
+        <v>1263</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>988</v>
+        <v>1325</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>989</v>
+        <v>1326</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1013</v>
+        <v>1350</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1014</v>
+        <v>1351</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1233</v>
+        <v>1570</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1234</v>
+        <v>1571</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1235</v>
+        <v>1572</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1236</v>
+        <v>1573</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1237</v>
+        <v>1574</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1238</v>
+        <v>1575</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1239</v>
+        <v>1576</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1240</v>
+        <v>1577</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1241</v>
+        <v>1578</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1242</v>
+        <v>1579</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1243</v>
+        <v>1580</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1244</v>
+        <v>1581</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1245</v>
+        <v>1582</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1246</v>
+        <v>1583</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1247</v>
+        <v>1584</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1248</v>
+        <v>1585</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1249</v>
+        <v>1586</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1250</v>
+        <v>1587</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1251</v>
+        <v>1588</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1252</v>
+        <v>1589</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1253</v>
+        <v>1590</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1254</v>
+        <v>1591</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1255</v>
+        <v>1592</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1256</v>
+        <v>1593</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1257</v>
+        <v>1594</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1260</v>
+        <v>1597</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1261</v>
+        <v>1598</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1262</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>927</v>
+        <v>1264</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>990</v>
+        <v>1327</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1015</v>
+        <v>1352</v>
       </c>
       <c r="F2" s="0">
         <v>532.80600000000004</v>
@@ -4392,7 +5405,7 @@
         <v>2.40625</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE2" s="0">
         <v>3.3333333333333335</v>
@@ -4406,19 +5419,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>927</v>
+        <v>1264</v>
       </c>
       <c r="B3" s="0">
         <v>30518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>990</v>
+        <v>1327</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1016</v>
+        <v>1353</v>
       </c>
       <c r="F3" s="0">
         <v>462.94099999999997</v>
@@ -4493,7 +5506,7 @@
         <v>5.875</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE3" s="0">
         <v>3.3333333333333335</v>
@@ -4507,19 +5520,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>928</v>
+        <v>1265</v>
       </c>
       <c r="B4" s="0">
         <v>30518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>990</v>
+        <v>1327</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1017</v>
+        <v>1354</v>
       </c>
       <c r="F4" s="0">
         <v>590.19000000000005</v>
@@ -4594,7 +5607,7 @@
         <v>1.625</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE4" s="0">
         <v>21.666666666666668</v>
@@ -4608,19 +5621,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>929</v>
+        <v>1266</v>
       </c>
       <c r="B5" s="0">
         <v>70518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>991</v>
+        <v>1328</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1018</v>
+        <v>1355</v>
       </c>
       <c r="F5" s="0">
         <v>527.33900000000006</v>
@@ -4693,7 +5706,7 @@
       </c>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE5" s="0">
         <v>23.333333333333336</v>
@@ -4707,19 +5720,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>930</v>
+        <v>1267</v>
       </c>
       <c r="B6" s="0">
         <v>70518</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>991</v>
+        <v>1328</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1019</v>
+        <v>1356</v>
       </c>
       <c r="F6" s="0">
         <v>509.87200000000001</v>
@@ -4792,7 +5805,7 @@
       </c>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE6" s="0">
         <v>11.666666666666668</v>
@@ -4806,19 +5819,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>930</v>
+        <v>1267</v>
       </c>
       <c r="B7" s="0">
         <v>70518</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>991</v>
+        <v>1328</v>
       </c>
       <c r="D7" s="0">
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1020</v>
+        <v>1357</v>
       </c>
       <c r="F7" s="0">
         <v>414.42200000000003</v>
@@ -4893,7 +5906,7 @@
         <v>5.09375</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -4907,19 +5920,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B8" s="0">
         <v>70518</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>991</v>
+        <v>1328</v>
       </c>
       <c r="D8" s="0">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1021</v>
+        <v>1358</v>
       </c>
       <c r="F8" s="0">
         <v>466.68799999999999</v>
@@ -4992,7 +6005,7 @@
       </c>
       <c r="AC8" s="0"/>
       <c r="AD8" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -5006,19 +6019,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B9" s="0">
         <v>70518</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>991</v>
+        <v>1328</v>
       </c>
       <c r="D9" s="0">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1022</v>
+        <v>1359</v>
       </c>
       <c r="F9" s="0">
         <v>403.43200000000002</v>
@@ -5093,7 +6106,7 @@
         <v>3.96875</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -5107,19 +6120,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B10" s="0">
         <v>80518</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>992</v>
+        <v>1329</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1023</v>
+        <v>1360</v>
       </c>
       <c r="F10" s="0">
         <v>484.14499999999998</v>
@@ -5194,7 +6207,7 @@
         <v>12.21875</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE10" s="0">
         <v>21.666666666666668</v>
@@ -5208,19 +6221,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B11" s="0">
         <v>80518</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>992</v>
+        <v>1329</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1024</v>
+        <v>1361</v>
       </c>
       <c r="F11" s="0">
         <v>472.774</v>
@@ -5295,7 +6308,7 @@
         <v>2.53125</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE11" s="0">
         <v>10</v>
@@ -5309,19 +6322,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B12" s="0">
         <v>80518</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>992</v>
+        <v>1329</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1025</v>
+        <v>1362</v>
       </c>
       <c r="F12" s="0">
         <v>499.76400000000001</v>
@@ -5394,7 +6407,7 @@
       </c>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE12" s="0">
         <v>21.666666666666668</v>
@@ -5408,19 +6421,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B13" s="0">
         <v>50618</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>993</v>
+        <v>1330</v>
       </c>
       <c r="D13" s="0">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1026</v>
+        <v>1363</v>
       </c>
       <c r="F13" s="0">
         <v>478.911</v>
@@ -5495,7 +6508,7 @@
         <v>3.25</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE13" s="0">
         <v>0</v>
@@ -5509,19 +6522,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B14" s="0">
         <v>50618</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>993</v>
+        <v>1330</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1027</v>
+        <v>1364</v>
       </c>
       <c r="F14" s="0">
         <v>429.96600000000001</v>
@@ -5596,7 +6609,7 @@
         <v>2.78125</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -5610,19 +6623,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B15" s="0">
         <v>50618</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>993</v>
+        <v>1330</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1028</v>
+        <v>1365</v>
       </c>
       <c r="F15" s="0">
         <v>513.00300000000004</v>
@@ -5695,7 +6708,7 @@
       </c>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE15" s="0">
         <v>16.666666666666668</v>
@@ -5709,19 +6722,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B16" s="0">
         <v>50618</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>993</v>
+        <v>1330</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1029</v>
+        <v>1366</v>
       </c>
       <c r="F16" s="0">
         <v>474.71600000000001</v>
@@ -5796,7 +6809,7 @@
         <v>8.625</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE16" s="0">
         <v>1.6666666666666667</v>
@@ -5810,19 +6823,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B17" s="0">
         <v>50618</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>993</v>
+        <v>1330</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1030</v>
+        <v>1367</v>
       </c>
       <c r="F17" s="0">
         <v>354.89999999999998</v>
@@ -5897,7 +6910,7 @@
         <v>4.21875</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE17" s="0">
         <v>0</v>
@@ -5911,19 +6924,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>931</v>
+        <v>1268</v>
       </c>
       <c r="B18" s="0">
         <v>50618</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>993</v>
+        <v>1330</v>
       </c>
       <c r="D18" s="0">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1031</v>
+        <v>1368</v>
       </c>
       <c r="F18" s="0">
         <v>383.32900000000001</v>
@@ -5998,7 +7011,7 @@
         <v>3.125</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE18" s="0">
         <v>0</v>
@@ -6012,19 +7025,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>932</v>
+        <v>1269</v>
       </c>
       <c r="B19" s="0">
         <v>50618</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>993</v>
+        <v>1330</v>
       </c>
       <c r="D19" s="0">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1032</v>
+        <v>1369</v>
       </c>
       <c r="F19" s="0">
         <v>476.22300000000001</v>
@@ -6097,7 +7110,7 @@
       </c>
       <c r="AC19" s="0"/>
       <c r="AD19" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE19" s="0">
         <v>40</v>
@@ -6111,19 +7124,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>933</v>
+        <v>1270</v>
       </c>
       <c r="B20" s="0">
         <v>50618</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>993</v>
+        <v>1330</v>
       </c>
       <c r="D20" s="0">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1033</v>
+        <v>1370</v>
       </c>
       <c r="F20" s="0">
         <v>460.68299999999999</v>
@@ -6196,7 +7209,7 @@
       </c>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE20" s="0">
         <v>23.333333333333336</v>
@@ -6210,19 +7223,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>933</v>
+        <v>1270</v>
       </c>
       <c r="B21" s="0">
         <v>80818</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>994</v>
+        <v>1331</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1034</v>
+        <v>1371</v>
       </c>
       <c r="F21" s="0">
         <v>486.38900000000001</v>
@@ -6297,7 +7310,7 @@
         <v>2.71875</v>
       </c>
       <c r="AD21" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE21" s="0">
         <v>25</v>
@@ -6311,19 +7324,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>933</v>
+        <v>1270</v>
       </c>
       <c r="B22" s="0">
         <v>80818</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>994</v>
+        <v>1331</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1035</v>
+        <v>1372</v>
       </c>
       <c r="F22" s="0">
         <v>496.774</v>
@@ -6392,7 +7405,7 @@
       </c>
       <c r="AC22" s="0"/>
       <c r="AD22" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE22" s="0">
         <v>53.333333333333336</v>
@@ -6406,19 +7419,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>933</v>
+        <v>1270</v>
       </c>
       <c r="B23" s="0">
         <v>80818</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>994</v>
+        <v>1331</v>
       </c>
       <c r="D23" s="0">
         <v>2</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1036</v>
+        <v>1373</v>
       </c>
       <c r="F23" s="0">
         <v>448.62900000000002</v>
@@ -6493,7 +7506,7 @@
         <v>3.53125</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE23" s="0">
         <v>11.666666666666668</v>
@@ -6507,19 +7520,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>933</v>
+        <v>1270</v>
       </c>
       <c r="B24" s="0">
         <v>80818</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>994</v>
+        <v>1331</v>
       </c>
       <c r="D24" s="0">
         <v>2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1037</v>
+        <v>1374</v>
       </c>
       <c r="F24" s="0">
         <v>482.81599999999997</v>
@@ -6592,7 +7605,7 @@
       </c>
       <c r="AC24" s="0"/>
       <c r="AD24" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE24" s="0">
         <v>50</v>
@@ -6606,19 +7619,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>933</v>
+        <v>1270</v>
       </c>
       <c r="B25" s="0">
         <v>80818</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>994</v>
+        <v>1331</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1038</v>
+        <v>1375</v>
       </c>
       <c r="F25" s="0">
         <v>361.84899999999999</v>
@@ -6693,7 +7706,7 @@
         <v>2.53125</v>
       </c>
       <c r="AD25" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE25" s="0">
         <v>36.666666666666671</v>
@@ -6707,19 +7720,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>933</v>
+        <v>1270</v>
       </c>
       <c r="B26" s="0">
         <v>80818</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>994</v>
+        <v>1331</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1039</v>
+        <v>1376</v>
       </c>
       <c r="F26" s="0">
         <v>417.62</v>
@@ -6794,7 +7807,7 @@
         <v>4.6875</v>
       </c>
       <c r="AD26" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE26" s="0">
         <v>0</v>
@@ -6808,19 +7821,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>933</v>
+        <v>1270</v>
       </c>
       <c r="B27" s="0">
         <v>220918</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>995</v>
+        <v>1332</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1040</v>
+        <v>1377</v>
       </c>
       <c r="F27" s="0">
         <v>480.77300000000002</v>
@@ -6895,7 +7908,7 @@
         <v>4.75</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE27" s="0">
         <v>8.3333333333333339</v>
@@ -6909,19 +7922,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>933</v>
+        <v>1270</v>
       </c>
       <c r="B28" s="0">
         <v>11018</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>996</v>
+        <v>1333</v>
       </c>
       <c r="D28" s="0">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1041</v>
+        <v>1378</v>
       </c>
       <c r="F28" s="0">
         <v>410.63499999999999</v>
@@ -6996,7 +8009,7 @@
         <v>0.25</v>
       </c>
       <c r="AD28" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE28" s="0">
         <v>30</v>
@@ -7010,19 +8023,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>934</v>
+        <v>1271</v>
       </c>
       <c r="B29" s="0">
         <v>21018</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>996</v>
+        <v>1333</v>
       </c>
       <c r="D29" s="0">
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1042</v>
+        <v>1379</v>
       </c>
       <c r="F29" s="0">
         <v>363.99400000000003</v>
@@ -7093,7 +8106,7 @@
         <v>0.25</v>
       </c>
       <c r="AD29" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE29" s="0">
         <v>28.333333333333336</v>
@@ -7107,19 +8120,19 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>935</v>
+        <v>1272</v>
       </c>
       <c r="B30" s="0">
         <v>311018</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>997</v>
+        <v>1334</v>
       </c>
       <c r="D30" s="0">
         <v>2</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1043</v>
+        <v>1380</v>
       </c>
       <c r="F30" s="0">
         <v>575.81500000000005</v>
@@ -7194,7 +8207,7 @@
         <v>6.1875</v>
       </c>
       <c r="AD30" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE30" s="0">
         <v>16.666666666666668</v>
@@ -7208,19 +8221,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>935</v>
+        <v>1272</v>
       </c>
       <c r="B31" s="0">
         <v>311018</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>997</v>
+        <v>1334</v>
       </c>
       <c r="D31" s="0">
         <v>2</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1044</v>
+        <v>1381</v>
       </c>
       <c r="F31" s="0">
         <v>620.48500000000001</v>
@@ -7295,7 +8308,7 @@
         <v>2.125</v>
       </c>
       <c r="AD31" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE31" s="0">
         <v>13.333333333333334</v>
@@ -7309,19 +8322,19 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>935</v>
+        <v>1272</v>
       </c>
       <c r="B32" s="0">
         <v>311018</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>997</v>
+        <v>1334</v>
       </c>
       <c r="D32" s="0">
         <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1045</v>
+        <v>1382</v>
       </c>
       <c r="F32" s="0">
         <v>532.50900000000001</v>
@@ -7396,7 +8409,7 @@
         <v>1.40625</v>
       </c>
       <c r="AD32" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE32" s="0">
         <v>25</v>
@@ -7410,19 +8423,19 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>936</v>
+        <v>1273</v>
       </c>
       <c r="B33" s="0">
         <v>31218</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D33" s="0">
         <v>2</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="F33" s="0">
         <v>360.89699999999999</v>
@@ -7495,7 +8508,7 @@
       </c>
       <c r="AC33" s="0"/>
       <c r="AD33" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE33" s="0">
         <v>0</v>
@@ -7509,19 +8522,19 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>937</v>
+        <v>1274</v>
       </c>
       <c r="B34" s="0">
         <v>31218</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D34" s="0">
         <v>2</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1047</v>
+        <v>1384</v>
       </c>
       <c r="F34" s="0">
         <v>429.56400000000002</v>
@@ -7596,7 +8609,7 @@
         <v>8.5</v>
       </c>
       <c r="AD34" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE34" s="0">
         <v>3.3333333333333335</v>
@@ -7610,19 +8623,19 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>937</v>
+        <v>1274</v>
       </c>
       <c r="B35" s="0">
         <v>31218</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D35" s="0">
         <v>2</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1048</v>
+        <v>1385</v>
       </c>
       <c r="F35" s="0">
         <v>387.68099999999998</v>
@@ -7697,7 +8710,7 @@
         <v>6.59375</v>
       </c>
       <c r="AD35" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE35" s="0">
         <v>13.333333333333334</v>
@@ -7711,19 +8724,19 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>938</v>
+        <v>1275</v>
       </c>
       <c r="B36" s="0">
         <v>171218</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D36" s="0">
         <v>2</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1049</v>
+        <v>1386</v>
       </c>
       <c r="F36" s="0">
         <v>457.68700000000001</v>
@@ -7798,7 +8811,7 @@
         <v>5.0625</v>
       </c>
       <c r="AD36" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE36" s="0">
         <v>26.666666666666668</v>
@@ -7812,19 +8825,19 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>939</v>
+        <v>1276</v>
       </c>
       <c r="B37" s="0">
         <v>171218</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D37" s="0">
         <v>2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1050</v>
+        <v>1387</v>
       </c>
       <c r="F37" s="0">
         <v>426.435</v>
@@ -7899,7 +8912,7 @@
         <v>3.15625</v>
       </c>
       <c r="AD37" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE37" s="0">
         <v>0</v>
@@ -7913,19 +8926,19 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>939</v>
+        <v>1276</v>
       </c>
       <c r="B38" s="0">
         <v>171218</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D38" s="0">
         <v>2</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1051</v>
+        <v>1388</v>
       </c>
       <c r="F38" s="0">
         <v>389.012</v>
@@ -8000,7 +9013,7 @@
         <v>4.6875</v>
       </c>
       <c r="AD38" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE38" s="0">
         <v>13.333333333333334</v>
@@ -8014,19 +9027,19 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>940</v>
+        <v>1277</v>
       </c>
       <c r="B39" s="0">
         <v>171218</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D39" s="0">
         <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1052</v>
+        <v>1389</v>
       </c>
       <c r="F39" s="0">
         <v>428.84899999999999</v>
@@ -8101,7 +9114,7 @@
         <v>3.78125</v>
       </c>
       <c r="AD39" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE39" s="0">
         <v>0</v>
@@ -8115,19 +9128,19 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>940</v>
+        <v>1277</v>
       </c>
       <c r="B40" s="0">
         <v>171218</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D40" s="0">
         <v>3</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1053</v>
+        <v>1390</v>
       </c>
       <c r="F40" s="0">
         <v>378.36900000000003</v>
@@ -8202,7 +9215,7 @@
         <v>3.71875</v>
       </c>
       <c r="AD40" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE40" s="0">
         <v>16.666666666666668</v>
@@ -8216,19 +9229,19 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>941</v>
+        <v>1278</v>
       </c>
       <c r="B41" s="0">
         <v>171218</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D41" s="0">
         <v>3</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1054</v>
+        <v>1391</v>
       </c>
       <c r="F41" s="0">
         <v>416.42399999999998</v>
@@ -8301,7 +9314,7 @@
       </c>
       <c r="AC41" s="0"/>
       <c r="AD41" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -8315,19 +9328,19 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>942</v>
+        <v>1279</v>
       </c>
       <c r="B42" s="0">
         <v>70219</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D42" s="0">
         <v>3</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1055</v>
+        <v>1392</v>
       </c>
       <c r="F42" s="0">
         <v>546.37099999999998</v>
@@ -8402,7 +9415,7 @@
         <v>5.03125</v>
       </c>
       <c r="AD42" s="0" t="s">
-        <v>1258</v>
+        <v>1595</v>
       </c>
       <c r="AE42" s="0">
         <v>83.333333333333343</v>
@@ -8416,19 +9429,19 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>943</v>
+        <v>1280</v>
       </c>
       <c r="B43" s="0">
         <v>70219</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D43" s="0">
         <v>3</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1056</v>
+        <v>1393</v>
       </c>
       <c r="F43" s="0">
         <v>404.084</v>
@@ -8501,7 +9514,7 @@
       </c>
       <c r="AC43" s="0"/>
       <c r="AD43" s="0" t="s">
-        <v>1259</v>
+        <v>1596</v>
       </c>
       <c r="AE43" s="0">
         <v>11.666666666666668</v>
@@ -8515,19 +9528,19 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>943</v>
+        <v>1280</v>
       </c>
       <c r="B44" s="0">
         <v>80219</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D44" s="0">
         <v>2</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1057</v>
+        <v>1394</v>
       </c>
       <c r="F44" s="0">
         <v>309.95600000000002</v>
@@ -8614,19 +9627,19 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>943</v>
+        <v>1280</v>
       </c>
       <c r="B45" s="0">
         <v>80219</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D45" s="0">
         <v>2</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1058</v>
+        <v>1395</v>
       </c>
       <c r="F45" s="0">
         <v>409.024</v>
@@ -8713,19 +9726,19 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>944</v>
+        <v>1281</v>
       </c>
       <c r="B46" s="0">
         <v>80219</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D46" s="0">
         <v>2</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1059</v>
+        <v>1396</v>
       </c>
       <c r="F46" s="0">
         <v>500.19600000000003</v>
@@ -8812,19 +9825,19 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>944</v>
+        <v>1281</v>
       </c>
       <c r="B47" s="0">
         <v>80219</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D47" s="0">
         <v>2</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1060</v>
+        <v>1397</v>
       </c>
       <c r="F47" s="0">
         <v>459.149</v>
@@ -8909,19 +9922,19 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>945</v>
+        <v>1282</v>
       </c>
       <c r="B48" s="0">
         <v>80219</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D48" s="0">
         <v>2</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1061</v>
+        <v>1398</v>
       </c>
       <c r="F48" s="0">
         <v>428.99900000000002</v>
@@ -9006,19 +10019,19 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>946</v>
+        <v>1283</v>
       </c>
       <c r="B49" s="0">
         <v>80219</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D49" s="0">
         <v>2</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1062</v>
+        <v>1399</v>
       </c>
       <c r="F49" s="0">
         <v>411.88499999999999</v>
@@ -9105,19 +10118,19 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>947</v>
+        <v>1284</v>
       </c>
       <c r="B50" s="0">
         <v>120219</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D50" s="0">
         <v>2</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1063</v>
+        <v>1400</v>
       </c>
       <c r="F50" s="0">
         <v>362.279</v>
@@ -9204,19 +10217,19 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>947</v>
+        <v>1284</v>
       </c>
       <c r="B51" s="0">
         <v>120219</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D51" s="0">
         <v>2</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1064</v>
+        <v>1401</v>
       </c>
       <c r="F51" s="0">
         <v>341.43299999999999</v>
@@ -9303,19 +10316,19 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>947</v>
+        <v>1284</v>
       </c>
       <c r="B52" s="0">
         <v>120219</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
       <c r="D52" s="0">
         <v>2</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1065</v>
+        <v>1402</v>
       </c>
       <c r="F52" s="0">
         <v>500.5</v>
@@ -9400,19 +10413,19 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>947</v>
+        <v>1284</v>
       </c>
       <c r="B53" s="0">
         <v>150519</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>999</v>
+        <v>1336</v>
       </c>
       <c r="D53" s="0">
         <v>2</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1065</v>
+        <v>1402</v>
       </c>
       <c r="F53" s="0">
         <v>543.94600000000003</v>
@@ -9499,19 +10512,19 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>947</v>
+        <v>1284</v>
       </c>
       <c r="B54" s="0">
         <v>150519</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>999</v>
+        <v>1336</v>
       </c>
       <c r="D54" s="0">
         <v>2</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1066</v>
+        <v>1403</v>
       </c>
       <c r="F54" s="0">
         <v>342.39699999999999</v>
@@ -9594,19 +10607,19 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>947</v>
+        <v>1284</v>
       </c>
       <c r="B55" s="0">
         <v>150519</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>999</v>
+        <v>1336</v>
       </c>
       <c r="D55" s="0">
         <v>2</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1067</v>
+        <v>1404</v>
       </c>
       <c r="F55" s="0">
         <v>499.39800000000002</v>
@@ -9681,7 +10694,7 @@
         <v>7.8125</v>
       </c>
       <c r="AD55" s="0" t="s">
-        <v>1259</v>
+        <v>1596</v>
       </c>
       <c r="AE55" s="0">
         <v>28.333333333333336</v>
@@ -9695,19 +10708,19 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>947</v>
+        <v>1284</v>
       </c>
       <c r="B56" s="0">
         <v>160519</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>999</v>
+        <v>1336</v>
       </c>
       <c r="D56" s="0">
         <v>1</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1068</v>
+        <v>1405</v>
       </c>
       <c r="F56" s="0">
         <v>407.608</v>
@@ -9794,19 +10807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>947</v>
+        <v>1284</v>
       </c>
       <c r="B57" s="0">
         <v>160519</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>999</v>
+        <v>1336</v>
       </c>
       <c r="D57" s="0">
         <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1069</v>
+        <v>1406</v>
       </c>
       <c r="F57" s="0">
         <v>409.11200000000002</v>
@@ -9893,19 +10906,19 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>948</v>
+        <v>1285</v>
       </c>
       <c r="B58" s="0">
         <v>160519</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>999</v>
+        <v>1336</v>
       </c>
       <c r="D58" s="0">
         <v>3</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>1070</v>
+        <v>1407</v>
       </c>
       <c r="F58" s="0">
         <v>503.45100000000002</v>
@@ -9992,19 +11005,19 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>949</v>
+        <v>1286</v>
       </c>
       <c r="B59" s="0">
         <v>160519</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>999</v>
+        <v>1336</v>
       </c>
       <c r="D59" s="0">
         <v>3</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>1071</v>
+        <v>1408</v>
       </c>
       <c r="F59" s="0">
         <v>480.70400000000001</v>
@@ -10091,19 +11104,19 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>949</v>
+        <v>1286</v>
       </c>
       <c r="B60" s="0">
         <v>170519</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>999</v>
+        <v>1336</v>
       </c>
       <c r="D60" s="0">
         <v>2</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>1072</v>
+        <v>1409</v>
       </c>
       <c r="F60" s="0">
         <v>463.661</v>
@@ -10190,19 +11203,19 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>949</v>
+        <v>1286</v>
       </c>
       <c r="B61" s="0">
         <v>170519</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>999</v>
+        <v>1336</v>
       </c>
       <c r="D61" s="0">
         <v>2</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>1073</v>
+        <v>1410</v>
       </c>
       <c r="F61" s="0">
         <v>452.399</v>
@@ -10289,19 +11302,19 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>949</v>
+        <v>1286</v>
       </c>
       <c r="B62" s="0">
         <v>220519</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D62" s="0">
         <v>2</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>1073</v>
+        <v>1410</v>
       </c>
       <c r="F62" s="0">
         <v>588.45399999999995</v>
@@ -10388,19 +11401,19 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>950</v>
+        <v>1287</v>
       </c>
       <c r="B63" s="0">
         <v>220519</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D63" s="0">
         <v>3</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>1074</v>
+        <v>1411</v>
       </c>
       <c r="F63" s="0">
         <v>507.31400000000002</v>
@@ -10487,19 +11500,19 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>951</v>
+        <v>1288</v>
       </c>
       <c r="B64" s="0">
         <v>220519</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D64" s="0">
         <v>3</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>1075</v>
+        <v>1412</v>
       </c>
       <c r="F64" s="0">
         <v>505.04199999999997</v>
@@ -10586,19 +11599,19 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>951</v>
+        <v>1288</v>
       </c>
       <c r="B65" s="0">
         <v>220519</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D65" s="0">
         <v>3</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>1076</v>
+        <v>1413</v>
       </c>
       <c r="F65" s="0">
         <v>488.39400000000001</v>
@@ -10683,19 +11696,19 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>951</v>
+        <v>1288</v>
       </c>
       <c r="B66" s="0">
         <v>290519</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D66" s="0">
         <v>1</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>1077</v>
+        <v>1414</v>
       </c>
       <c r="F66" s="0">
         <v>421.226</v>
@@ -10782,19 +11795,19 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>952</v>
+        <v>1289</v>
       </c>
       <c r="B67" s="0">
         <v>290519</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D67" s="0">
         <v>1</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>1078</v>
+        <v>1415</v>
       </c>
       <c r="F67" s="0">
         <v>404.71699999999998</v>
@@ -10881,19 +11894,19 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>953</v>
+        <v>1290</v>
       </c>
       <c r="B68" s="0">
         <v>290519</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D68" s="0">
         <v>2</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>1079</v>
+        <v>1416</v>
       </c>
       <c r="F68" s="0">
         <v>585.452</v>
@@ -10966,7 +11979,7 @@
       </c>
       <c r="AC68" s="0"/>
       <c r="AD68" s="0" t="s">
-        <v>1259</v>
+        <v>1596</v>
       </c>
       <c r="AE68" s="0">
         <v>31.666666666666668</v>
@@ -10980,19 +11993,19 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>953</v>
+        <v>1290</v>
       </c>
       <c r="B69" s="0">
         <v>300519</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D69" s="0">
         <v>2</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>1080</v>
+        <v>1417</v>
       </c>
       <c r="F69" s="0">
         <v>434.90699999999998</v>
@@ -11077,19 +12090,19 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>953</v>
+        <v>1290</v>
       </c>
       <c r="B70" s="0">
         <v>300519</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D70" s="0">
         <v>2</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>1081</v>
+        <v>1418</v>
       </c>
       <c r="F70" s="0">
         <v>528.89200000000005</v>
@@ -11176,19 +12189,19 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>954</v>
+        <v>1291</v>
       </c>
       <c r="B71" s="0">
         <v>300519</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D71" s="0">
         <v>2</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>1082</v>
+        <v>1419</v>
       </c>
       <c r="F71" s="0">
         <v>589.42399999999998</v>
@@ -11273,19 +12286,19 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>954</v>
+        <v>1291</v>
       </c>
       <c r="B72" s="0">
         <v>300519</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>1000</v>
+        <v>1337</v>
       </c>
       <c r="D72" s="0">
         <v>2</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>1083</v>
+        <v>1420</v>
       </c>
       <c r="F72" s="0">
         <v>593.97900000000004</v>
@@ -11358,7 +12371,7 @@
       </c>
       <c r="AC72" s="0"/>
       <c r="AD72" s="0" t="s">
-        <v>1259</v>
+        <v>1596</v>
       </c>
       <c r="AE72" s="0">
         <v>18.333333333333336</v>
@@ -11372,19 +12385,19 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>955</v>
+        <v>1292</v>
       </c>
       <c r="B73" s="0">
         <v>310120</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>1001</v>
+        <v>1338</v>
       </c>
       <c r="D73" s="0">
         <v>3</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>1084</v>
+        <v>1421</v>
       </c>
       <c r="F73" s="0">
         <v>380.67500000000001</v>
@@ -11459,7 +12472,7 @@
         <v>3.90625</v>
       </c>
       <c r="AD73" s="0" t="s">
-        <v>1259</v>
+        <v>1596</v>
       </c>
       <c r="AE73" s="0">
         <v>21.666666666666668</v>
@@ -11473,19 +12486,19 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>955</v>
+        <v>1292</v>
       </c>
       <c r="B74" s="0">
         <v>250320</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>1001</v>
+        <v>1338</v>
       </c>
       <c r="D74" s="0">
         <v>2</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>1085</v>
+        <v>1422</v>
       </c>
       <c r="F74" s="0">
         <v>480.77499999999998</v>
@@ -11572,19 +12585,19 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>956</v>
+        <v>1293</v>
       </c>
       <c r="B75" s="0">
         <v>250320</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>1001</v>
+        <v>1338</v>
       </c>
       <c r="D75" s="0">
         <v>2</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>1086</v>
+        <v>1423</v>
       </c>
       <c r="F75" s="0">
         <v>428.44900000000001</v>
@@ -11671,19 +12684,19 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>957</v>
+        <v>1294</v>
       </c>
       <c r="B76" s="0">
         <v>260320</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>1001</v>
+        <v>1338</v>
       </c>
       <c r="D76" s="0">
         <v>2</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>1087</v>
+        <v>1424</v>
       </c>
       <c r="F76" s="0">
         <v>524.59799999999996</v>
@@ -11768,19 +12781,19 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>957</v>
+        <v>1294</v>
       </c>
       <c r="B77" s="0">
         <v>260320</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>1001</v>
+        <v>1338</v>
       </c>
       <c r="D77" s="0">
         <v>2</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>1088</v>
+        <v>1425</v>
       </c>
       <c r="F77" s="0">
         <v>465.96699999999998</v>
@@ -11867,19 +12880,19 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>958</v>
+        <v>1295</v>
       </c>
       <c r="B78" s="0">
         <v>260320</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>1001</v>
+        <v>1338</v>
       </c>
       <c r="D78" s="0">
         <v>2</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>1089</v>
+        <v>1426</v>
       </c>
       <c r="F78" s="0">
         <v>514.60299999999995</v>
@@ -11960,19 +12973,19 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>959</v>
+        <v>1296</v>
       </c>
       <c r="B79" s="0">
         <v>260420</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D79" s="0">
         <v>2</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>1090</v>
+        <v>1427</v>
       </c>
       <c r="F79" s="0">
         <v>373.99900000000002</v>
@@ -12059,19 +13072,19 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>959</v>
+        <v>1296</v>
       </c>
       <c r="B80" s="0">
         <v>260420</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D80" s="0">
         <v>2</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>1091</v>
+        <v>1428</v>
       </c>
       <c r="F80" s="0">
         <v>384.10599999999999</v>
@@ -12158,19 +13171,19 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>959</v>
+        <v>1296</v>
       </c>
       <c r="B81" s="0">
         <v>280420</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D81" s="0">
         <v>2</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>1092</v>
+        <v>1429</v>
       </c>
       <c r="F81" s="0">
         <v>319.63099999999997</v>
@@ -12257,19 +13270,19 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>959</v>
+        <v>1296</v>
       </c>
       <c r="B82" s="0">
         <v>280420</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D82" s="0">
         <v>2</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>1093</v>
+        <v>1430</v>
       </c>
       <c r="F82" s="0">
         <v>345.839</v>
@@ -12356,19 +13369,19 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>960</v>
+        <v>1297</v>
       </c>
       <c r="B83" s="0">
         <v>280420</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D83" s="0">
         <v>3</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>1094</v>
+        <v>1431</v>
       </c>
       <c r="F83" s="0">
         <v>375.012</v>
@@ -12455,19 +13468,19 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>960</v>
+        <v>1297</v>
       </c>
       <c r="B84" s="0">
         <v>290420</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D84" s="0">
         <v>2</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>1095</v>
+        <v>1432</v>
       </c>
       <c r="F84" s="0">
         <v>381.83600000000001</v>
@@ -12552,19 +13565,19 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>961</v>
+        <v>1298</v>
       </c>
       <c r="B85" s="0">
         <v>290420</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D85" s="0">
         <v>2</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>1096</v>
+        <v>1433</v>
       </c>
       <c r="F85" s="0">
         <v>386.48500000000001</v>
@@ -12651,19 +13664,19 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>961</v>
+        <v>1298</v>
       </c>
       <c r="B86" s="0">
         <v>290420</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D86" s="0">
         <v>3</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>1097</v>
+        <v>1434</v>
       </c>
       <c r="F86" s="0">
         <v>497.36599999999999</v>
@@ -12750,19 +13763,19 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>961</v>
+        <v>1298</v>
       </c>
       <c r="B87" s="0">
         <v>290420</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D87" s="0">
         <v>3</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>1098</v>
+        <v>1435</v>
       </c>
       <c r="F87" s="0">
         <v>530.32899999999995</v>
@@ -12849,19 +13862,19 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>961</v>
+        <v>1298</v>
       </c>
       <c r="B88" s="0">
         <v>20520</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D88" s="0">
         <v>2</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>1099</v>
+        <v>1436</v>
       </c>
       <c r="F88" s="0">
         <v>509.142</v>
@@ -12948,19 +13961,19 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>962</v>
+        <v>1299</v>
       </c>
       <c r="B89" s="0">
         <v>20520</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D89" s="0">
         <v>3</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>1100</v>
+        <v>1437</v>
       </c>
       <c r="F89" s="0">
         <v>426.51900000000001</v>
@@ -13047,19 +14060,19 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>963</v>
+        <v>1300</v>
       </c>
       <c r="B90" s="0">
         <v>20520</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D90" s="0">
         <v>3</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>1101</v>
+        <v>1438</v>
       </c>
       <c r="F90" s="0">
         <v>377.27699999999999</v>
@@ -13146,19 +14159,19 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>963</v>
+        <v>1300</v>
       </c>
       <c r="B91" s="0">
         <v>20520</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D91" s="0">
         <v>3</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>1102</v>
+        <v>1439</v>
       </c>
       <c r="F91" s="0">
         <v>397.04599999999999</v>
@@ -13245,19 +14258,19 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>963</v>
+        <v>1300</v>
       </c>
       <c r="B92" s="0">
         <v>60520</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D92" s="0">
         <v>2</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>1103</v>
+        <v>1440</v>
       </c>
       <c r="F92" s="0">
         <v>554.601</v>
@@ -13344,19 +14357,19 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>963</v>
+        <v>1300</v>
       </c>
       <c r="B93" s="0">
         <v>60520</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D93" s="0">
         <v>3</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>1104</v>
+        <v>1441</v>
       </c>
       <c r="F93" s="0">
         <v>439.82600000000002</v>
@@ -13443,19 +14456,19 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>964</v>
+        <v>1301</v>
       </c>
       <c r="B94" s="0">
         <v>60520</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>1002</v>
+        <v>1339</v>
       </c>
       <c r="D94" s="0">
         <v>3</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>1105</v>
+        <v>1442</v>
       </c>
       <c r="F94" s="0">
         <v>427.69200000000001</v>
@@ -13540,19 +14553,19 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>964</v>
+        <v>1301</v>
       </c>
       <c r="B95" s="0">
         <v>140520</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D95" s="0">
         <v>2</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>1106</v>
+        <v>1443</v>
       </c>
       <c r="F95" s="0">
         <v>490.94</v>
@@ -13633,19 +14646,19 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>965</v>
+        <v>1302</v>
       </c>
       <c r="B96" s="0">
         <v>150520</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D96" s="0">
         <v>1</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>1107</v>
+        <v>1444</v>
       </c>
       <c r="F96" s="0">
         <v>515.92899999999997</v>
@@ -13732,19 +14745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>966</v>
+        <v>1303</v>
       </c>
       <c r="B97" s="0">
         <v>150520</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D97" s="0">
         <v>1</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>1108</v>
+        <v>1445</v>
       </c>
       <c r="F97" s="0">
         <v>500.041</v>
@@ -13827,19 +14840,19 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>967</v>
+        <v>1304</v>
       </c>
       <c r="B98" s="0">
         <v>150520</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D98" s="0">
         <v>2</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>1109</v>
+        <v>1446</v>
       </c>
       <c r="F98" s="0">
         <v>462.14400000000001</v>
@@ -13926,19 +14939,19 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>967</v>
+        <v>1304</v>
       </c>
       <c r="B99" s="0">
         <v>180520</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D99" s="0">
         <v>1</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>1110</v>
+        <v>1447</v>
       </c>
       <c r="F99" s="0">
         <v>424.25799999999998</v>
@@ -14025,19 +15038,19 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>967</v>
+        <v>1304</v>
       </c>
       <c r="B100" s="0">
         <v>180520</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D100" s="0">
         <v>1</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>1111</v>
+        <v>1448</v>
       </c>
       <c r="F100" s="0">
         <v>383.39499999999998</v>
@@ -14124,19 +15137,19 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>967</v>
+        <v>1304</v>
       </c>
       <c r="B101" s="0">
         <v>190520</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D101" s="0">
         <v>1</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>1112</v>
+        <v>1449</v>
       </c>
       <c r="F101" s="0">
         <v>450.01600000000002</v>
@@ -14223,19 +15236,19 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>968</v>
+        <v>1305</v>
       </c>
       <c r="B102" s="0">
         <v>190520</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D102" s="0">
         <v>1</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>1113</v>
+        <v>1450</v>
       </c>
       <c r="F102" s="0">
         <v>475.017</v>
@@ -14322,19 +15335,19 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>969</v>
+        <v>1306</v>
       </c>
       <c r="B103" s="0">
         <v>190520</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D103" s="0">
         <v>1</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>1114</v>
+        <v>1451</v>
       </c>
       <c r="F103" s="0">
         <v>424.30099999999999</v>
@@ -14421,19 +15434,19 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>970</v>
+        <v>1307</v>
       </c>
       <c r="B104" s="0">
         <v>190520</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D104" s="0">
         <v>1</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>1115</v>
+        <v>1452</v>
       </c>
       <c r="F104" s="0">
         <v>570.43799999999999</v>
@@ -14518,19 +15531,19 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>971</v>
+        <v>1308</v>
       </c>
       <c r="B105" s="0">
         <v>200520</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D105" s="0">
         <v>2</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>1116</v>
+        <v>1453</v>
       </c>
       <c r="F105" s="0">
         <v>520.65999999999997</v>
@@ -14617,19 +15630,19 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>971</v>
+        <v>1308</v>
       </c>
       <c r="B106" s="0">
         <v>200520</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D106" s="0">
         <v>2</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>1117</v>
+        <v>1454</v>
       </c>
       <c r="F106" s="0">
         <v>512.58900000000006</v>
@@ -14716,19 +15729,19 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>972</v>
+        <v>1309</v>
       </c>
       <c r="B107" s="0">
         <v>210520</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D107" s="0">
         <v>1</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>1118</v>
+        <v>1455</v>
       </c>
       <c r="F107" s="0">
         <v>482.98500000000001</v>
@@ -14815,19 +15828,19 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>973</v>
+        <v>1310</v>
       </c>
       <c r="B108" s="0">
         <v>210520</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D108" s="0">
         <v>1</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>1119</v>
+        <v>1456</v>
       </c>
       <c r="F108" s="0">
         <v>510.274</v>
@@ -14914,19 +15927,19 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>973</v>
+        <v>1310</v>
       </c>
       <c r="B109" s="0">
         <v>210520</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D109" s="0">
         <v>2</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>1120</v>
+        <v>1457</v>
       </c>
       <c r="F109" s="0">
         <v>570.12</v>
@@ -15013,19 +16026,19 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>974</v>
+        <v>1311</v>
       </c>
       <c r="B110" s="0">
         <v>240520</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D110" s="0">
         <v>1</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>1121</v>
+        <v>1458</v>
       </c>
       <c r="F110" s="0">
         <v>352.471</v>
@@ -15112,19 +16125,19 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>974</v>
+        <v>1311</v>
       </c>
       <c r="B111" s="0">
         <v>240520</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D111" s="0">
         <v>1</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>1122</v>
+        <v>1459</v>
       </c>
       <c r="F111" s="0">
         <v>378.04399999999998</v>
@@ -15211,19 +16224,19 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>975</v>
+        <v>1312</v>
       </c>
       <c r="B112" s="0">
         <v>240520</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D112" s="0">
         <v>2</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>1123</v>
+        <v>1460</v>
       </c>
       <c r="F112" s="0">
         <v>432.50099999999998</v>
@@ -15310,19 +16323,19 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>975</v>
+        <v>1312</v>
       </c>
       <c r="B113" s="0">
         <v>240520</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>1003</v>
+        <v>1340</v>
       </c>
       <c r="D113" s="0">
         <v>2</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>1124</v>
+        <v>1461</v>
       </c>
       <c r="F113" s="0">
         <v>420.47899999999998</v>
@@ -15409,19 +16422,19 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>975</v>
+        <v>1312</v>
       </c>
       <c r="B114" s="0">
         <v>270520</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>1004</v>
+        <v>1341</v>
       </c>
       <c r="D114" s="0">
         <v>2</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>1125</v>
+        <v>1462</v>
       </c>
       <c r="F114" s="0">
         <v>391.40600000000001</v>
@@ -15508,19 +16521,19 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>976</v>
+        <v>1313</v>
       </c>
       <c r="B115" s="0">
         <v>270520</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>1004</v>
+        <v>1341</v>
       </c>
       <c r="D115" s="0">
         <v>2</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>1126</v>
+        <v>1463</v>
       </c>
       <c r="F115" s="0">
         <v>393.995</v>
@@ -15607,19 +16620,19 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>977</v>
+        <v>1314</v>
       </c>
       <c r="B116" s="0">
         <v>270520</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>1004</v>
+        <v>1341</v>
       </c>
       <c r="D116" s="0">
         <v>2</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>1127</v>
+        <v>1464</v>
       </c>
       <c r="F116" s="0">
         <v>400.02699999999999</v>
@@ -15706,19 +16719,19 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>977</v>
+        <v>1314</v>
       </c>
       <c r="B117" s="0">
         <v>41220</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>1005</v>
+        <v>1342</v>
       </c>
       <c r="D117" s="0">
         <v>3</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>1128</v>
+        <v>1465</v>
       </c>
       <c r="F117" s="0">
         <v>468.20600000000002</v>
@@ -15805,19 +16818,19 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>978</v>
+        <v>1315</v>
       </c>
       <c r="B118" s="0">
         <v>41220</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D118" s="0">
         <v>2</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>1129</v>
+        <v>1466</v>
       </c>
       <c r="F118" s="0">
         <v>527.303</v>
@@ -15904,19 +16917,19 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B119" s="0">
         <v>41220</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D119" s="0">
         <v>2</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>1130</v>
+        <v>1467</v>
       </c>
       <c r="F119" s="0">
         <v>443.95999999999998</v>
@@ -16003,19 +17016,19 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B120" s="0">
         <v>81220</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D120" s="0">
         <v>2</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>1131</v>
+        <v>1468</v>
       </c>
       <c r="F120" s="0">
         <v>337.86000000000001</v>
@@ -16102,19 +17115,19 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B121" s="0">
         <v>81220</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D121" s="0">
         <v>2</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>1132</v>
+        <v>1469</v>
       </c>
       <c r="F121" s="0">
         <v>395.22399999999999</v>
@@ -16201,19 +17214,19 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B122" s="0">
         <v>91220</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D122" s="0">
         <v>2</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>1133</v>
+        <v>1470</v>
       </c>
       <c r="F122" s="0">
         <v>402.30399999999997</v>
@@ -16300,19 +17313,19 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B123" s="0">
         <v>91220</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D123" s="0">
         <v>2</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>1134</v>
+        <v>1471</v>
       </c>
       <c r="F123" s="0">
         <v>420.47300000000001</v>
@@ -16399,19 +17412,19 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B124" s="0">
         <v>130121</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D124" s="0">
         <v>2</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1135</v>
+        <v>1472</v>
       </c>
       <c r="F124" s="0">
         <v>433.36700000000002</v>
@@ -16498,19 +17511,19 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B125" s="0">
         <v>130121</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D125" s="0">
         <v>3</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1136</v>
+        <v>1473</v>
       </c>
       <c r="F125" s="0">
         <v>494.46800000000002</v>
@@ -16597,19 +17610,19 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B126" s="0">
         <v>130121</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D126" s="0">
         <v>5</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1137</v>
+        <v>1474</v>
       </c>
       <c r="F126" s="0">
         <v>457.59800000000001</v>
@@ -16696,19 +17709,19 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B127" s="0">
         <v>180121</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D127" s="0">
         <v>2</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>1138</v>
+        <v>1475</v>
       </c>
       <c r="F127" s="0">
         <v>361.38999999999999</v>
@@ -16795,19 +17808,19 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B128" s="0">
         <v>180121</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D128" s="0">
         <v>2</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>1139</v>
+        <v>1476</v>
       </c>
       <c r="F128" s="0">
         <v>416.15499999999997</v>
@@ -16894,19 +17907,19 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>979</v>
+        <v>1316</v>
       </c>
       <c r="B129" s="0">
         <v>180121</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D129" s="0">
         <v>3</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>1140</v>
+        <v>1477</v>
       </c>
       <c r="F129" s="0">
         <v>404.61900000000003</v>
@@ -16993,19 +18006,19 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>980</v>
+        <v>1317</v>
       </c>
       <c r="B130" s="0">
         <v>180121</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D130" s="0">
         <v>3</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>1141</v>
+        <v>1478</v>
       </c>
       <c r="F130" s="0">
         <v>402.56</v>
@@ -17092,19 +18105,19 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>980</v>
+        <v>1317</v>
       </c>
       <c r="B131" s="0">
         <v>190121</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D131" s="0">
         <v>2</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>1142</v>
+        <v>1479</v>
       </c>
       <c r="F131" s="0">
         <v>531.99300000000005</v>
@@ -17191,19 +18204,19 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>981</v>
+        <v>1318</v>
       </c>
       <c r="B132" s="0">
         <v>190121</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D132" s="0">
         <v>3</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>1143</v>
+        <v>1480</v>
       </c>
       <c r="F132" s="0">
         <v>517.55600000000004</v>
@@ -17290,19 +18303,19 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>982</v>
+        <v>1319</v>
       </c>
       <c r="B133" s="0">
         <v>190121</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D133" s="0">
         <v>3</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>1144</v>
+        <v>1481</v>
       </c>
       <c r="F133" s="0">
         <v>406.07999999999998</v>
@@ -17389,19 +18402,19 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>982</v>
+        <v>1319</v>
       </c>
       <c r="B134" s="0">
         <v>190121</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D134" s="0">
         <v>3</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>1145</v>
+        <v>1482</v>
       </c>
       <c r="F134" s="0">
         <v>363.67099999999999</v>
@@ -17488,19 +18501,19 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>983</v>
+        <v>1320</v>
       </c>
       <c r="B135" s="0">
         <v>250121</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D135" s="0">
         <v>2</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>1146</v>
+        <v>1483</v>
       </c>
       <c r="F135" s="0">
         <v>418.19600000000003</v>
@@ -17587,19 +18600,19 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>983</v>
+        <v>1320</v>
       </c>
       <c r="B136" s="0">
         <v>250121</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D136" s="0">
         <v>2</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>1147</v>
+        <v>1484</v>
       </c>
       <c r="F136" s="0">
         <v>421.99000000000001</v>
@@ -17686,19 +18699,19 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>983</v>
+        <v>1320</v>
       </c>
       <c r="B137" s="0">
         <v>250121</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D137" s="0">
         <v>2</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>1148</v>
+        <v>1485</v>
       </c>
       <c r="F137" s="0">
         <v>450.01600000000002</v>
@@ -17785,19 +18798,19 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>984</v>
+        <v>1321</v>
       </c>
       <c r="B138" s="0">
         <v>250121</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D138" s="0">
         <v>2</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>1149</v>
+        <v>1486</v>
       </c>
       <c r="F138" s="0">
         <v>455.69900000000001</v>
@@ -17884,19 +18897,19 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>985</v>
+        <v>1322</v>
       </c>
       <c r="B139" s="0">
         <v>250121</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D139" s="0">
         <v>3</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>1150</v>
+        <v>1487</v>
       </c>
       <c r="F139" s="0">
         <v>479.04000000000002</v>
@@ -17983,19 +18996,19 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>985</v>
+        <v>1322</v>
       </c>
       <c r="B140" s="0">
         <v>250121</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>1006</v>
+        <v>1343</v>
       </c>
       <c r="D140" s="0">
         <v>3</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>1151</v>
+        <v>1488</v>
       </c>
       <c r="F140" s="0">
         <v>457.59699999999998</v>
@@ -18082,19 +19095,19 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>985</v>
+        <v>1322</v>
       </c>
       <c r="B141" s="0">
         <v>30221</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>1007</v>
+        <v>1344</v>
       </c>
       <c r="D141" s="0">
         <v>2</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>1152</v>
+        <v>1489</v>
       </c>
       <c r="F141" s="0">
         <v>445.892</v>
@@ -18181,19 +19194,19 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>986</v>
+        <v>1323</v>
       </c>
       <c r="B142" s="0">
         <v>30221</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>1007</v>
+        <v>1344</v>
       </c>
       <c r="D142" s="0">
         <v>2</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>1153</v>
+        <v>1490</v>
       </c>
       <c r="F142" s="0">
         <v>378.37099999999998</v>
@@ -18280,19 +19293,19 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>987</v>
+        <v>1324</v>
       </c>
       <c r="B143" s="0">
         <v>40221</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>1007</v>
+        <v>1344</v>
       </c>
       <c r="D143" s="0">
         <v>1</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>1153</v>
+        <v>1490</v>
       </c>
       <c r="F143" s="0">
         <v>476.60199999999998</v>
@@ -18379,19 +19392,19 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>987</v>
+        <v>1324</v>
       </c>
       <c r="B144" s="0">
         <v>40221</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>1007</v>
+        <v>1344</v>
       </c>
       <c r="D144" s="0">
         <v>1</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>1154</v>
+        <v>1491</v>
       </c>
       <c r="F144" s="0">
         <v>531.20100000000002</v>
@@ -18478,19 +19491,19 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>987</v>
+        <v>1324</v>
       </c>
       <c r="B145" s="0">
         <v>210618</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D145" s="0">
         <v>1</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>1155</v>
+        <v>1492</v>
       </c>
       <c r="F145" s="0"/>
       <c r="G145" s="0"/>
@@ -18551,13 +19564,13 @@
         <v>30818</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D146" s="0">
         <v>1</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>1156</v>
+        <v>1493</v>
       </c>
       <c r="F146" s="0"/>
       <c r="G146" s="0"/>
@@ -18618,13 +19631,13 @@
         <v>30818</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D147" s="0">
         <v>3</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>1157</v>
+        <v>1494</v>
       </c>
       <c r="F147" s="0"/>
       <c r="G147" s="0"/>
@@ -18685,13 +19698,13 @@
         <v>30818</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D148" s="0">
         <v>3</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>1158</v>
+        <v>1495</v>
       </c>
       <c r="F148" s="0"/>
       <c r="G148" s="0"/>
@@ -18752,13 +19765,13 @@
         <v>30818</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D149" s="0">
         <v>3</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>1159</v>
+        <v>1496</v>
       </c>
       <c r="F149" s="0"/>
       <c r="G149" s="0"/>
@@ -18819,13 +19832,13 @@
         <v>30818</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D150" s="0">
         <v>3</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>1160</v>
+        <v>1497</v>
       </c>
       <c r="F150" s="0"/>
       <c r="G150" s="0"/>
@@ -18886,13 +19899,13 @@
         <v>30818</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D151" s="0">
         <v>1</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>1161</v>
+        <v>1498</v>
       </c>
       <c r="F151" s="0"/>
       <c r="G151" s="0"/>
@@ -18951,13 +19964,13 @@
         <v>30818</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D152" s="0">
         <v>1</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>1162</v>
+        <v>1499</v>
       </c>
       <c r="F152" s="0"/>
       <c r="G152" s="0"/>
@@ -19018,13 +20031,13 @@
         <v>30818</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D153" s="0">
         <v>2</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>1163</v>
+        <v>1500</v>
       </c>
       <c r="F153" s="0"/>
       <c r="G153" s="0"/>
@@ -19085,13 +20098,13 @@
         <v>30818</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D154" s="0">
         <v>2</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>1164</v>
+        <v>1501</v>
       </c>
       <c r="F154" s="0"/>
       <c r="G154" s="0"/>
@@ -19150,13 +20163,13 @@
         <v>60818</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D155" s="0">
         <v>1</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>1165</v>
+        <v>1502</v>
       </c>
       <c r="F155" s="0"/>
       <c r="G155" s="0"/>
@@ -19217,13 +20230,13 @@
         <v>60818</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D156" s="0">
         <v>3</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>1166</v>
+        <v>1503</v>
       </c>
       <c r="F156" s="0"/>
       <c r="G156" s="0"/>
@@ -19284,13 +20297,13 @@
         <v>60818</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D157" s="0">
         <v>1</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>1167</v>
+        <v>1504</v>
       </c>
       <c r="F157" s="0"/>
       <c r="G157" s="0"/>
@@ -19351,13 +20364,13 @@
         <v>60818</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D158" s="0">
         <v>2</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>1168</v>
+        <v>1505</v>
       </c>
       <c r="F158" s="0"/>
       <c r="G158" s="0"/>
@@ -19418,13 +20431,13 @@
         <v>60818</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D159" s="0">
         <v>3</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>1169</v>
+        <v>1506</v>
       </c>
       <c r="F159" s="0"/>
       <c r="G159" s="0"/>
@@ -19485,13 +20498,13 @@
         <v>60818</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D160" s="0">
         <v>3</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>1170</v>
+        <v>1507</v>
       </c>
       <c r="F160" s="0"/>
       <c r="G160" s="0"/>
@@ -19552,13 +20565,13 @@
         <v>60818</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D161" s="0">
         <v>3</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>1171</v>
+        <v>1508</v>
       </c>
       <c r="F161" s="0"/>
       <c r="G161" s="0"/>
@@ -19619,13 +20632,13 @@
         <v>70818</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D162" s="0">
         <v>1</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>1172</v>
+        <v>1509</v>
       </c>
       <c r="F162" s="0"/>
       <c r="G162" s="0"/>
@@ -19686,13 +20699,13 @@
         <v>70818</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D163" s="0">
         <v>2</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>1173</v>
+        <v>1510</v>
       </c>
       <c r="F163" s="0"/>
       <c r="G163" s="0"/>
@@ -19753,13 +20766,13 @@
         <v>70818</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D164" s="0">
         <v>1</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>1174</v>
+        <v>1511</v>
       </c>
       <c r="F164" s="0"/>
       <c r="G164" s="0"/>
@@ -19820,13 +20833,13 @@
         <v>70818</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D165" s="0">
         <v>2</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>1175</v>
+        <v>1512</v>
       </c>
       <c r="F165" s="0"/>
       <c r="G165" s="0"/>
@@ -19887,13 +20900,13 @@
         <v>70818</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D166" s="0">
         <v>1</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>1176</v>
+        <v>1513</v>
       </c>
       <c r="F166" s="0"/>
       <c r="G166" s="0"/>
@@ -19954,13 +20967,13 @@
         <v>70818</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D167" s="0">
         <v>1</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>1177</v>
+        <v>1514</v>
       </c>
       <c r="F167" s="0"/>
       <c r="G167" s="0"/>
@@ -20021,13 +21034,13 @@
         <v>70818</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D168" s="0">
         <v>2</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>1178</v>
+        <v>1515</v>
       </c>
       <c r="F168" s="0"/>
       <c r="G168" s="0"/>
@@ -20086,13 +21099,13 @@
         <v>70818</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D169" s="0">
         <v>2</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>1179</v>
+        <v>1516</v>
       </c>
       <c r="F169" s="0"/>
       <c r="G169" s="0"/>
@@ -20153,13 +21166,13 @@
         <v>70818</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D170" s="0">
         <v>2</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>1180</v>
+        <v>1517</v>
       </c>
       <c r="F170" s="0"/>
       <c r="G170" s="0"/>
@@ -20220,13 +21233,13 @@
         <v>140818</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D171" s="0">
         <v>1</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>1181</v>
+        <v>1518</v>
       </c>
       <c r="F171" s="0"/>
       <c r="G171" s="0"/>
@@ -20285,13 +21298,13 @@
         <v>140818</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D172" s="0">
         <v>1</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>1182</v>
+        <v>1519</v>
       </c>
       <c r="F172" s="0"/>
       <c r="G172" s="0"/>
@@ -20352,13 +21365,13 @@
         <v>140818</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D173" s="0">
         <v>2</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>1183</v>
+        <v>1520</v>
       </c>
       <c r="F173" s="0"/>
       <c r="G173" s="0"/>
@@ -20419,13 +21432,13 @@
         <v>140818</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D174" s="0">
         <v>2</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>1184</v>
+        <v>1521</v>
       </c>
       <c r="F174" s="0"/>
       <c r="G174" s="0"/>
@@ -20486,13 +21499,13 @@
         <v>140818</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D175" s="0">
         <v>2</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>1185</v>
+        <v>1522</v>
       </c>
       <c r="F175" s="0"/>
       <c r="G175" s="0"/>
@@ -20551,13 +21564,13 @@
         <v>140818</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>1008</v>
+        <v>1345</v>
       </c>
       <c r="D176" s="0">
         <v>3</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>1186</v>
+        <v>1523</v>
       </c>
       <c r="F176" s="0"/>
       <c r="G176" s="0"/>
@@ -20616,13 +21629,13 @@
         <v>300518</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D177" s="0">
         <v>1</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>1187</v>
+        <v>1524</v>
       </c>
       <c r="F177" s="0"/>
       <c r="G177" s="0"/>
@@ -20683,13 +21696,13 @@
         <v>300518</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D178" s="0">
         <v>1</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>1188</v>
+        <v>1525</v>
       </c>
       <c r="F178" s="0"/>
       <c r="G178" s="0"/>
@@ -20750,13 +21763,13 @@
         <v>300518</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D179" s="0">
         <v>1</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>1189</v>
+        <v>1526</v>
       </c>
       <c r="F179" s="0"/>
       <c r="G179" s="0"/>
@@ -20817,13 +21830,13 @@
         <v>300518</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D180" s="0">
         <v>2</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>1190</v>
+        <v>1527</v>
       </c>
       <c r="F180" s="0"/>
       <c r="G180" s="0"/>
@@ -20884,13 +21897,13 @@
         <v>300518</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D181" s="0">
         <v>2</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>1191</v>
+        <v>1528</v>
       </c>
       <c r="F181" s="0"/>
       <c r="G181" s="0"/>
@@ -20951,13 +21964,13 @@
         <v>300518</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D182" s="0">
         <v>3</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>1192</v>
+        <v>1529</v>
       </c>
       <c r="F182" s="0"/>
       <c r="G182" s="0"/>
@@ -21018,13 +22031,13 @@
         <v>300518</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D183" s="0">
         <v>3</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>1193</v>
+        <v>1530</v>
       </c>
       <c r="F183" s="0"/>
       <c r="G183" s="0"/>
@@ -21085,13 +22098,13 @@
         <v>300518</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D184" s="0">
         <v>3</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>1194</v>
+        <v>1531</v>
       </c>
       <c r="F184" s="0"/>
       <c r="G184" s="0"/>
@@ -21150,13 +22163,13 @@
         <v>70618</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D185" s="0">
         <v>1</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>1195</v>
+        <v>1532</v>
       </c>
       <c r="F185" s="0"/>
       <c r="G185" s="0"/>
@@ -21217,13 +22230,13 @@
         <v>70618</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D186" s="0">
         <v>1</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>1196</v>
+        <v>1533</v>
       </c>
       <c r="F186" s="0"/>
       <c r="G186" s="0"/>
@@ -21284,13 +22297,13 @@
         <v>70618</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D187" s="0">
         <v>1</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>1197</v>
+        <v>1534</v>
       </c>
       <c r="F187" s="0"/>
       <c r="G187" s="0"/>
@@ -21351,13 +22364,13 @@
         <v>70618</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D188" s="0">
         <v>1</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>1198</v>
+        <v>1535</v>
       </c>
       <c r="F188" s="0"/>
       <c r="G188" s="0"/>
@@ -21418,13 +22431,13 @@
         <v>70618</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D189" s="0">
         <v>2</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>1199</v>
+        <v>1536</v>
       </c>
       <c r="F189" s="0"/>
       <c r="G189" s="0"/>
@@ -21485,13 +22498,13 @@
         <v>70618</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D190" s="0">
         <v>2</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>1200</v>
+        <v>1537</v>
       </c>
       <c r="F190" s="0"/>
       <c r="G190" s="0"/>
@@ -21552,13 +22565,13 @@
         <v>70618</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D191" s="0">
         <v>2</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>1201</v>
+        <v>1538</v>
       </c>
       <c r="F191" s="0"/>
       <c r="G191" s="0"/>
@@ -21619,13 +22632,13 @@
         <v>70618</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D192" s="0">
         <v>3</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>1202</v>
+        <v>1539</v>
       </c>
       <c r="F192" s="0"/>
       <c r="G192" s="0"/>
@@ -21686,13 +22699,13 @@
         <v>70618</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D193" s="0">
         <v>3</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>1203</v>
+        <v>1540</v>
       </c>
       <c r="F193" s="0"/>
       <c r="G193" s="0"/>
@@ -21753,13 +22766,13 @@
         <v>70618</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D194" s="0">
         <v>3</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>1204</v>
+        <v>1541</v>
       </c>
       <c r="F194" s="0"/>
       <c r="G194" s="0"/>
@@ -21820,13 +22833,13 @@
         <v>70618</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D195" s="0">
         <v>3</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>1205</v>
+        <v>1542</v>
       </c>
       <c r="F195" s="0"/>
       <c r="G195" s="0"/>
@@ -21887,13 +22900,13 @@
         <v>80618</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D196" s="0">
         <v>1</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>1206</v>
+        <v>1543</v>
       </c>
       <c r="F196" s="0"/>
       <c r="G196" s="0"/>
@@ -21954,13 +22967,13 @@
         <v>80618</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D197" s="0">
         <v>1</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>1207</v>
+        <v>1544</v>
       </c>
       <c r="F197" s="0"/>
       <c r="G197" s="0"/>
@@ -22021,13 +23034,13 @@
         <v>80618</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D198" s="0">
         <v>2</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>1208</v>
+        <v>1545</v>
       </c>
       <c r="F198" s="0"/>
       <c r="G198" s="0"/>
@@ -22088,13 +23101,13 @@
         <v>80618</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D199" s="0">
         <v>3</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>1209</v>
+        <v>1546</v>
       </c>
       <c r="F199" s="0"/>
       <c r="G199" s="0"/>
@@ -22155,13 +23168,13 @@
         <v>80618</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D200" s="0">
         <v>3</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>1210</v>
+        <v>1547</v>
       </c>
       <c r="F200" s="0"/>
       <c r="G200" s="0"/>
@@ -22222,13 +23235,13 @@
         <v>80618</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>1009</v>
+        <v>1346</v>
       </c>
       <c r="D201" s="0">
         <v>3</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>1211</v>
+        <v>1548</v>
       </c>
       <c r="F201" s="0"/>
       <c r="G201" s="0"/>
@@ -22289,13 +23302,13 @@
         <v>251018</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D202" s="0">
         <v>2</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>1212</v>
+        <v>1549</v>
       </c>
       <c r="F202" s="0"/>
       <c r="G202" s="0"/>
@@ -22356,13 +23369,13 @@
         <v>251018</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D203" s="0">
         <v>2</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>1213</v>
+        <v>1550</v>
       </c>
       <c r="F203" s="0"/>
       <c r="G203" s="0"/>
@@ -22423,13 +23436,13 @@
         <v>251018</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D204" s="0">
         <v>2</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>1214</v>
+        <v>1551</v>
       </c>
       <c r="F204" s="0"/>
       <c r="G204" s="0"/>
@@ -22490,13 +23503,13 @@
         <v>261018</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D205" s="0">
         <v>2</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>1215</v>
+        <v>1552</v>
       </c>
       <c r="F205" s="0"/>
       <c r="G205" s="0"/>
@@ -22557,13 +23570,13 @@
         <v>261018</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D206" s="0">
         <v>2</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>1216</v>
+        <v>1553</v>
       </c>
       <c r="F206" s="0"/>
       <c r="G206" s="0"/>
@@ -22624,13 +23637,13 @@
         <v>261018</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D207" s="0">
         <v>2</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>1217</v>
+        <v>1554</v>
       </c>
       <c r="F207" s="0"/>
       <c r="G207" s="0"/>
@@ -22691,13 +23704,13 @@
         <v>261018</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D208" s="0">
         <v>2</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>1218</v>
+        <v>1555</v>
       </c>
       <c r="F208" s="0"/>
       <c r="G208" s="0"/>
@@ -22756,13 +23769,13 @@
         <v>220519</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D209" s="0">
         <v>1</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>1219</v>
+        <v>1556</v>
       </c>
       <c r="F209" s="0"/>
       <c r="G209" s="0"/>
@@ -22823,13 +23836,13 @@
         <v>220519</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D210" s="0">
         <v>1</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>1220</v>
+        <v>1557</v>
       </c>
       <c r="F210" s="0"/>
       <c r="G210" s="0"/>
@@ -22888,13 +23901,13 @@
         <v>220519</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D211" s="0">
         <v>2</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>1221</v>
+        <v>1558</v>
       </c>
       <c r="F211" s="0"/>
       <c r="G211" s="0"/>
@@ -22955,13 +23968,13 @@
         <v>220519</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>1010</v>
+        <v>1347</v>
       </c>
       <c r="D212" s="0">
         <v>2</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>1222</v>
+        <v>1559</v>
       </c>
       <c r="F212" s="0"/>
       <c r="G212" s="0"/>
@@ -23022,13 +24035,13 @@
         <v>40918</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>1011</v>
+        <v>1348</v>
       </c>
       <c r="D213" s="0">
         <v>2</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>1223</v>
+        <v>1560</v>
       </c>
       <c r="F213" s="0"/>
       <c r="G213" s="0"/>
@@ -23087,13 +24100,13 @@
         <v>40918</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>1011</v>
+        <v>1348</v>
       </c>
       <c r="D214" s="0">
         <v>2</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>1224</v>
+        <v>1561</v>
       </c>
       <c r="F214" s="0"/>
       <c r="G214" s="0"/>
@@ -23152,13 +24165,13 @@
         <v>11018</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>1012</v>
+        <v>1349</v>
       </c>
       <c r="D215" s="0">
         <v>2</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>1225</v>
+        <v>1562</v>
       </c>
       <c r="F215" s="0"/>
       <c r="G215" s="0"/>
@@ -23219,13 +24232,13 @@
         <v>11018</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>1012</v>
+        <v>1349</v>
       </c>
       <c r="D216" s="0">
         <v>2</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>1226</v>
+        <v>1563</v>
       </c>
       <c r="F216" s="0"/>
       <c r="G216" s="0"/>
@@ -23286,13 +24299,13 @@
         <v>21018</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>1012</v>
+        <v>1349</v>
       </c>
       <c r="D217" s="0">
         <v>2</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>1227</v>
+        <v>1564</v>
       </c>
       <c r="F217" s="0"/>
       <c r="G217" s="0"/>
@@ -23351,13 +24364,13 @@
         <v>21018</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>1012</v>
+        <v>1349</v>
       </c>
       <c r="D218" s="0">
         <v>2</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>1228</v>
+        <v>1565</v>
       </c>
       <c r="F218" s="0"/>
       <c r="G218" s="0"/>
@@ -23418,11 +24431,11 @@
         <v>270319</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>1012</v>
+        <v>1349</v>
       </c>
       <c r="D219" s="0"/>
       <c r="E219" s="0" t="s">
-        <v>1229</v>
+        <v>1566</v>
       </c>
       <c r="F219" s="0"/>
       <c r="G219" s="0"/>
@@ -23483,11 +24496,11 @@
         <v>270319</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>1012</v>
+        <v>1349</v>
       </c>
       <c r="D220" s="0"/>
       <c r="E220" s="0" t="s">
-        <v>1230</v>
+        <v>1567</v>
       </c>
       <c r="F220" s="0"/>
       <c r="G220" s="0"/>
@@ -23548,11 +24561,11 @@
         <v>270319</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>1012</v>
+        <v>1349</v>
       </c>
       <c r="D221" s="0"/>
       <c r="E221" s="0" t="s">
-        <v>1231</v>
+        <v>1568</v>
       </c>
       <c r="F221" s="0"/>
       <c r="G221" s="0"/>
@@ -23611,11 +24624,11 @@
         <v>270320</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>1012</v>
+        <v>1349</v>
       </c>
       <c r="D222" s="0"/>
       <c r="E222" s="0" t="s">
-        <v>1232</v>
+        <v>1569</v>
       </c>
       <c r="F222" s="0"/>
       <c r="G222" s="0"/>
